--- a/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
+++ b/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3797" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD1789E-D9FF-40B5-934E-EB1139E506C2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="8" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="3" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Discus" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Polshoog" sheetId="7" r:id="rId6"/>
     <sheet name="Speer" sheetId="9" r:id="rId7"/>
     <sheet name="Verspringen" sheetId="1" r:id="rId8"/>
-    <sheet name="Meeting Records" sheetId="19" r:id="rId9"/>
+    <sheet name="Meeting Records" sheetId="19" state="hidden" r:id="rId9"/>
     <sheet name="Samenvatting" sheetId="18" state="hidden" r:id="rId10"/>
     <sheet name="layout" sheetId="2" state="hidden" r:id="rId11"/>
   </sheets>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="589">
   <si>
     <t>Mannen</t>
   </si>
@@ -1293,9 +1293,15 @@
     <t>AV Triathlon</t>
   </si>
   <si>
+    <t>Sanne Rombouts</t>
+  </si>
+  <si>
     <t>Rianna Galiart</t>
   </si>
   <si>
+    <t>Karlijn Schouten</t>
+  </si>
+  <si>
     <t>Sabine Verbeek</t>
   </si>
   <si>
@@ -1305,6 +1311,9 @@
     <t>Yvette Caldenhove</t>
   </si>
   <si>
+    <t>Fleurine van Beek</t>
+  </si>
+  <si>
     <t>Jitske Spijker</t>
   </si>
   <si>
@@ -1320,16 +1329,7 @@
     <t>Fleur van der Linden</t>
   </si>
   <si>
-    <t>Christa van der Toorn</t>
-  </si>
-  <si>
-    <t>FIT</t>
-  </si>
-  <si>
-    <t>Sandra van der Geer</t>
-  </si>
-  <si>
-    <t>Isabel Janssen</t>
+    <t>Noga Piepenbroek</t>
   </si>
   <si>
     <t>Kristina Tergau</t>
@@ -1500,6 +1500,9 @@
     <t>Mandy van der Meer</t>
   </si>
   <si>
+    <t>Noah Verduin</t>
+  </si>
+  <si>
     <t>Danien ten Berge</t>
   </si>
   <si>
@@ -1513,12 +1516,6 @@
   </si>
   <si>
     <t>Myke van de Wiel</t>
-  </si>
-  <si>
-    <t>Susanne van der Hoeven</t>
-  </si>
-  <si>
-    <t>Noah Verduin</t>
   </si>
   <si>
     <t>Karlien Sleper</t>
@@ -1894,26 +1891,26 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2256,13 +2253,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -2271,10 +2268,10 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -2459,13 +2456,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2474,7 +2471,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2655,13 +2652,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -2670,7 +2667,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2851,13 +2848,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -2866,7 +2863,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3047,13 +3044,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -3062,7 +3059,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3244,13 +3241,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -3259,7 +3256,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3443,7 +3440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49F9038-B239-4351-8A95-68FDD8335CAB}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
@@ -3453,22 +3452,22 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C1" s="21">
+        <v>553</v>
+      </c>
+      <c r="C1" s="20">
         <v>45061</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -3476,7 +3475,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3485,72 +3484,72 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="M8" s="17" t="s">
         <v>576</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B9" s="10">
         <f>Verspringen!D$5</f>
@@ -3603,7 +3602,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B10" s="10">
         <f>HSS!D$5</f>
@@ -3656,7 +3655,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B11">
         <f>Kogelstoten!D$5</f>
@@ -3709,7 +3708,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B12">
         <f>Kogelslingeren!D$5</f>
@@ -3762,7 +3761,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B13" s="10">
         <f>Hoog!D$5</f>
@@ -3815,7 +3814,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B14" s="10">
         <f>Polshoog!D$5</f>
@@ -3843,18 +3842,18 @@
       </c>
       <c r="H14" s="10">
         <f>Polshoog!D$56</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I14" s="10">
-        <f>Polshoog!D$65</f>
-        <v>3.6</v>
+        <v>4.13</v>
+      </c>
+      <c r="I14" s="21">
+        <f>Polshoog!D65</f>
+        <v>3.7</v>
       </c>
       <c r="J14" s="10">
         <f>Polshoog!D$70</f>
         <v>3.84</v>
       </c>
-      <c r="K14" s="10">
-        <f>Polshoog!D$79</f>
+      <c r="K14" s="12">
+        <f>Polshoog!D$80</f>
         <v>2.9</v>
       </c>
       <c r="L14" s="10">
@@ -3868,7 +3867,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B15">
         <f>Discus!D$5</f>
@@ -3921,7 +3920,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B16" s="10">
         <f>Speer!D$5</f>
@@ -3953,7 +3952,7 @@
       </c>
       <c r="I16" s="10">
         <f>Speer!D$56</f>
-        <v>41.32</v>
+        <v>44.19</v>
       </c>
       <c r="J16" s="10">
         <f>Speer!D$61</f>
@@ -3975,7 +3974,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="14"/>
       <c r="B18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -4029,13 +4028,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4044,7 +4043,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4053,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -4064,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -4075,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -4086,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -4097,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -4108,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -4119,7 +4118,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -4130,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -4141,7 +4140,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -4152,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -4172,13 +4171,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4187,7 +4186,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4196,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -4207,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -4218,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -4229,7 +4228,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -4240,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -4251,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -4262,7 +4261,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -4273,7 +4272,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -4284,7 +4283,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -4295,7 +4294,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -4315,13 +4314,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -4330,7 +4329,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4339,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -4350,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -4361,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -4372,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
@@ -4383,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
@@ -4394,7 +4393,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -4405,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
@@ -4416,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -4427,7 +4426,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
@@ -4438,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
@@ -4458,13 +4457,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -4473,7 +4472,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4482,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E47" s="7">
         <v>0</v>
@@ -4493,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
@@ -4504,7 +4503,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
@@ -4515,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
@@ -4526,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E51" s="7">
         <v>0</v>
@@ -4537,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E52" s="7">
         <v>0</v>
@@ -4548,7 +4547,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E53" s="7">
         <v>0</v>
@@ -4559,7 +4558,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
@@ -4570,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E55" s="7">
         <v>0</v>
@@ -4581,7 +4580,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E56" s="7">
         <v>0</v>
@@ -4604,13 +4603,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -4619,7 +4618,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4628,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="1"/>
@@ -4642,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
@@ -4653,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E63" s="7">
         <v>0</v>
@@ -4664,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E64" s="7">
         <v>0</v>
@@ -4675,7 +4674,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E65" s="7">
         <v>0</v>
@@ -4686,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E66" s="7">
         <v>0</v>
@@ -4697,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E67" s="7">
         <v>0</v>
@@ -4708,7 +4707,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E68" s="8">
         <v>0</v>
@@ -4719,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -4730,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E70" s="7">
         <v>0</v>
@@ -4753,13 +4752,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -4768,7 +4767,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4777,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E75" s="7">
         <v>0</v>
@@ -4788,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E76" s="7">
         <v>0</v>
@@ -4799,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E77" s="7">
         <v>0</v>
@@ -4810,7 +4809,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E78" s="7">
         <v>0</v>
@@ -4821,7 +4820,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E79" s="7">
         <v>0</v>
@@ -4832,7 +4831,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E80" s="7">
         <v>0</v>
@@ -4843,7 +4842,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
@@ -4854,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E82" s="8">
         <v>0</v>
@@ -4865,7 +4864,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E83" s="7">
         <v>0</v>
@@ -4876,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E84" s="7">
         <v>0</v>
@@ -4928,13 +4927,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4943,7 +4942,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5123,13 +5122,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -5138,7 +5137,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5386,13 +5385,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -5401,7 +5400,7 @@
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5598,13 +5597,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -5613,7 +5612,7 @@
       <c r="E49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5793,13 +5792,13 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="5" customFormat="1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -5808,7 +5807,7 @@
       <c r="E63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5825,7 +5824,7 @@
       <c r="D64" s="10">
         <v>1.71</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="4">
         <v>44050</v>
       </c>
@@ -5877,7 +5876,7 @@
       <c r="D67" s="10">
         <v>1.7</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="4">
         <v>42174</v>
       </c>
@@ -5934,7 +5933,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="17">
+      <c r="A71" s="15">
         <v>8</v>
       </c>
       <c r="B71" t="s">
@@ -6007,13 +6006,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" s="5" customFormat="1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -6022,7 +6021,7 @@
       <c r="E77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6303,13 +6302,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -6318,7 +6317,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6335,7 +6334,7 @@
       <c r="D5" s="10">
         <v>15.54</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="17">
         <v>1.2</v>
       </c>
       <c r="F5" s="4">
@@ -6415,7 +6414,7 @@
       <c r="D9" s="10">
         <v>14.48</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="17">
         <v>3.1</v>
       </c>
       <c r="F9" s="4">
@@ -6528,13 +6527,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6543,7 +6542,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6560,7 +6559,7 @@
       <c r="D19" s="10">
         <v>15.11</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="17">
         <v>1.6</v>
       </c>
       <c r="F19" s="4">
@@ -6751,13 +6750,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -6766,7 +6765,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6966,13 +6965,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -6981,7 +6980,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7078,7 +7077,7 @@
       <c r="D51" s="10">
         <v>12.28</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="17">
         <v>-0.5</v>
       </c>
       <c r="F51" s="4">
@@ -7135,7 +7134,7 @@
       <c r="D54" s="10">
         <v>11.81</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="17">
         <v>1.3</v>
       </c>
       <c r="F54" s="4">
@@ -7193,13 +7192,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -7208,7 +7207,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7413,13 +7412,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -7428,7 +7427,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7485,7 +7484,7 @@
       <c r="D77" s="10">
         <v>11.26</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="17">
         <v>-2.5</v>
       </c>
       <c r="F77" s="4">
@@ -7583,7 +7582,7 @@
       <c r="D82" s="10">
         <v>10.76</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="17">
         <v>-0.1</v>
       </c>
       <c r="F82" s="4">
@@ -7640,7 +7639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC66621-F239-4EEE-89F3-9BEAE8A324F9}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -7669,13 +7668,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -7684,10 +7683,10 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -7869,13 +7868,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -7884,7 +7883,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8065,13 +8064,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -8080,7 +8079,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8261,13 +8260,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -8276,7 +8275,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8457,13 +8456,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -8472,7 +8471,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8653,13 +8652,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -8668,7 +8667,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8852,8 +8851,1263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA53186-195F-46EF-BA9A-D41FB55891C0}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="str">
+        <f>Samenvatting!A1</f>
+        <v>Laatst bijgewerkt:</v>
+      </c>
+      <c r="C1" s="4">
+        <f>Samenvatting!C1</f>
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>19.02</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4">
+        <v>41131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10">
+        <v>18.59</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10">
+        <v>18.21</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="10">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4">
+        <v>35979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10">
+        <v>16.53</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4">
+        <v>36742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="4">
+        <v>38240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="10">
+        <v>16.21</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4">
+        <v>37456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1">
+      <c r="A18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="10">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="4">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="10">
+        <v>16.48</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4">
+        <v>41495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10">
+        <v>16.03</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4">
+        <v>39304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="10">
+        <v>15.79</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4">
+        <v>41054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10">
+        <v>15.7</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4">
+        <v>38240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="10">
+        <v>15.68</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4">
+        <v>40368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="10">
+        <v>15.43</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="4">
+        <v>36376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="10">
+        <v>15.38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D27" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="10">
+        <v>15.07</v>
+      </c>
+      <c r="F28" s="4">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="17"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="5" customFormat="1">
+      <c r="A32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="10">
+        <v>18.55</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="4">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="10">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4">
+        <v>41131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="10">
+        <v>17.48</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4">
+        <v>42594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="10">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="4">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="10">
+        <v>16.8</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="4">
+        <v>38842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="10">
+        <v>16.16</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="4">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>334</v>
+      </c>
+      <c r="C39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" s="10">
+        <v>15.83</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="4">
+        <v>41460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" s="10">
+        <v>15.72</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="4">
+        <v>41516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="10">
+        <v>15.52</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="4">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="10">
+        <v>15.24</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="4">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="5" customFormat="1">
+      <c r="A46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="10">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="4">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="10">
+        <v>17.05</v>
+      </c>
+      <c r="F48" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="10">
+        <v>15.24</v>
+      </c>
+      <c r="F49" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="10">
+        <v>14.24</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="4">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="10">
+        <v>14.22</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="4">
+        <v>41439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="10">
+        <v>14.11</v>
+      </c>
+      <c r="F52" s="4">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" s="10">
+        <v>14</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="10">
+        <v>13.93</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="4">
+        <v>38156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" s="10">
+        <v>13.62</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="4">
+        <v>38156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="10">
+        <v>13.61</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="4">
+        <v>38842</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="5" customFormat="1">
+      <c r="A60" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="5" customFormat="1">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>351</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="10">
+        <v>16.12</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="10">
+        <v>14.04</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="4">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="10">
+        <v>13.23</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="4">
+        <v>41460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="10">
+        <v>12.86</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="4">
+        <v>38604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="10">
+        <v>12.84</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="4">
+        <v>40669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="10">
+        <v>12.82</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="4">
+        <v>41131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" s="10">
+        <v>12.81</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="4">
+        <v>37043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="10">
+        <v>12.47</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="4">
+        <v>37750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="10">
+        <v>12.44</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="4">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>356</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="10">
+        <v>12.19</v>
+      </c>
+      <c r="F70" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="5" customFormat="1">
+      <c r="A74" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="10">
+        <v>16.21</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="4">
+        <v>37820</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="10">
+        <v>15.92</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="10">
+        <v>14.93</v>
+      </c>
+      <c r="F77" s="4">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" t="s">
+        <v>359</v>
+      </c>
+      <c r="D78" s="10">
+        <v>14.73</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="4">
+        <v>41810</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="10">
+        <v>14.63</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="4">
+        <v>39977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="4">
+        <v>39647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="10">
+        <v>14.47</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="10">
+        <v>14.43</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="4">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>363</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="10">
+        <v>14.42</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="4">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="10">
+        <v>14.14</v>
+      </c>
+      <c r="F84" s="4">
+        <v>40368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31CB02-91F0-4C9B-9EAB-0CB6F32967A5}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8881,13 +10135,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -8896,7 +10150,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8905,17 +10159,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10">
-        <v>19.02</v>
-      </c>
-      <c r="E5" s="15"/>
+        <v>5.2</v>
+      </c>
       <c r="F5" s="4">
-        <v>41131</v>
+        <v>41103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8923,104 +10176,101 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="D6" s="10">
-        <v>18.59</v>
+        <v>5.05</v>
       </c>
       <c r="F6" s="4">
-        <v>44050</v>
+        <v>41033</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="D7" s="10">
-        <v>18.21</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4">
-        <v>44332</v>
+        <v>39199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
-        <v>4</v>
+      <c r="A8" s="14">
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D8" s="10">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>5</v>
+      </c>
       <c r="F8" s="4">
-        <v>35979</v>
+        <v>39199</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="14">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10">
-        <v>16.579999999999998</v>
-      </c>
       <c r="F9" s="4">
-        <v>44332</v>
+        <v>39199</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>6</v>
+      <c r="A10" s="14">
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D10" s="10">
-        <v>16.53</v>
-      </c>
-      <c r="E10" s="15"/>
+        <v>5</v>
+      </c>
       <c r="F10" s="4">
-        <v>36000</v>
+        <v>40347</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>7</v>
+      <c r="A11" s="14">
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="D11" s="10">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>5</v>
+      </c>
       <c r="F11" s="4">
-        <v>36742</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9028,17 +10278,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="D12" s="10">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>4.9000000000000004</v>
+      </c>
       <c r="F12" s="4">
-        <v>38240</v>
+        <v>37092</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9046,1268 +10295,6 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10">
-        <v>16.3</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4">
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="10">
-        <v>16.21</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4">
-        <v>37456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="10">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="4">
-        <v>45058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="10">
-        <v>16.48</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4">
-        <v>41495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="10">
-        <v>16.03</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4">
-        <v>39304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="10">
-        <v>15.79</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4">
-        <v>41054</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="10">
-        <v>15.7</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4">
-        <v>38240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="10">
-        <v>15.68</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4">
-        <v>40368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="10">
-        <v>15.43</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="4">
-        <v>36376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D26" s="10">
-        <v>15.38</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4">
-        <v>39668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>334</v>
-      </c>
-      <c r="C27" t="s">
-        <v>335</v>
-      </c>
-      <c r="D27" s="10">
-        <v>15.1</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4">
-        <v>42174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="10">
-        <v>15.07</v>
-      </c>
-      <c r="F28" s="4">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="10">
-        <v>15.46</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="4">
-        <v>44750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="10">
-        <v>18.55</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="4">
-        <v>44673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="10">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4">
-        <v>41131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>337</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="10">
-        <v>17.48</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4">
-        <v>42594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" t="s">
-        <v>339</v>
-      </c>
-      <c r="D36" s="10">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4">
-        <v>39668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="10">
-        <v>16.8</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="4">
-        <v>38842</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="10">
-        <v>16.16</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="4">
-        <v>43231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>334</v>
-      </c>
-      <c r="C39" t="s">
-        <v>335</v>
-      </c>
-      <c r="D39" s="10">
-        <v>15.83</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="4">
-        <v>41460</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>340</v>
-      </c>
-      <c r="C40" t="s">
-        <v>335</v>
-      </c>
-      <c r="D40" s="10">
-        <v>15.72</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="4">
-        <v>41516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="10">
-        <v>15.52</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4">
-        <v>41831</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>341</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="10">
-        <v>15.24</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4">
-        <v>40004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>342</v>
-      </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="10">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="4">
-        <v>44050</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>343</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="10">
-        <v>17.05</v>
-      </c>
-      <c r="F48" s="4">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="10">
-        <v>15.24</v>
-      </c>
-      <c r="F49" s="4">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="10">
-        <v>14.24</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="4">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>344</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="10">
-        <v>14.22</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="4">
-        <v>41439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>345</v>
-      </c>
-      <c r="C52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="10">
-        <v>14.11</v>
-      </c>
-      <c r="F52" s="4">
-        <v>43294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>346</v>
-      </c>
-      <c r="C53" t="s">
-        <v>347</v>
-      </c>
-      <c r="D53" s="10">
-        <v>14</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="4">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="10">
-        <v>13.93</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="4">
-        <v>38156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>348</v>
-      </c>
-      <c r="C55" t="s">
-        <v>349</v>
-      </c>
-      <c r="D55" s="10">
-        <v>13.62</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4">
-        <v>38156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>350</v>
-      </c>
-      <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="10">
-        <v>13.61</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="4">
-        <v>38842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="5" customFormat="1">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>351</v>
-      </c>
-      <c r="C61" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="10">
-        <v>16.12</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="4">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="10">
-        <v>14.04</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="4">
-        <v>43637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="10">
-        <v>13.23</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="4">
-        <v>41460</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="10">
-        <v>12.86</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="4">
-        <v>38604</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>352</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="10">
-        <v>12.84</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="4">
-        <v>40669</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>353</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="10">
-        <v>12.82</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="4">
-        <v>41131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" t="s">
-        <v>354</v>
-      </c>
-      <c r="D67" s="10">
-        <v>12.81</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="4">
-        <v>37043</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="10">
-        <v>12.47</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="4">
-        <v>37750</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>355</v>
-      </c>
-      <c r="C69" t="s">
-        <v>268</v>
-      </c>
-      <c r="D69" s="10">
-        <v>12.44</v>
-      </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="4">
-        <v>41831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>10</v>
-      </c>
-      <c r="B70" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="10">
-        <v>12.19</v>
-      </c>
-      <c r="F70" s="4">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="10">
-        <v>16.21</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="4">
-        <v>37820</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>357</v>
-      </c>
-      <c r="C76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="10">
-        <v>15.92</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="4">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
-        <v>358</v>
-      </c>
-      <c r="C77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="10">
-        <v>14.93</v>
-      </c>
-      <c r="F77" s="4">
-        <v>39668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
-        <v>342</v>
-      </c>
-      <c r="C78" t="s">
-        <v>359</v>
-      </c>
-      <c r="D78" s="10">
-        <v>14.73</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="4">
-        <v>41810</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" s="10">
-        <v>14.63</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="4">
-        <v>39977</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>361</v>
-      </c>
-      <c r="C80" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="10">
-        <v>14.6</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="4">
-        <v>39647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="10">
-        <v>14.47</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="4">
-        <v>44778</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>362</v>
-      </c>
-      <c r="C82" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" s="10">
-        <v>14.43</v>
-      </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="4">
-        <v>42909</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>363</v>
-      </c>
-      <c r="C83" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="10">
-        <v>14.42</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="4">
-        <v>39668</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>10</v>
-      </c>
-      <c r="B84" t="s">
-        <v>352</v>
-      </c>
-      <c r="C84" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="10">
-        <v>14.14</v>
-      </c>
-      <c r="F84" s="4">
-        <v>40368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31CB02-91F0-4C9B-9EAB-0CB6F32967A5}">
-  <dimension ref="A1:F93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="str">
-        <f>Samenvatting!A1</f>
-        <v>Laatst bijgewerkt:</v>
-      </c>
-      <c r="C1" s="4">
-        <f>Samenvatting!C1</f>
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>41103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5.05</v>
-      </c>
-      <c r="F6" s="4">
-        <v>41033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>39199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>39199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>39199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>40347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>42195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F12" s="4">
-        <v>37092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
         <v>375</v>
       </c>
       <c r="C13" t="s">
@@ -10378,13 +10365,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -10393,7 +10380,7 @@
       <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10675,13 +10662,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -10690,7 +10677,7 @@
       <c r="E38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10938,13 +10925,13 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="5" customFormat="1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -10953,7 +10940,7 @@
       <c r="E55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10965,47 +10952,47 @@
         <v>415</v>
       </c>
       <c r="C56" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="D56" s="10">
-        <v>4.0999999999999996</v>
+        <v>4.13</v>
       </c>
       <c r="F56" s="4">
-        <v>39241</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>416</v>
       </c>
       <c r="C57" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F57" s="4">
+        <v>39241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="15">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
         <v>417</v>
       </c>
-      <c r="D57" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="F57" s="4">
-        <v>38534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="14">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>418</v>
-      </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D58" s="10">
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
       <c r="F58" s="4">
-        <v>39689</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -11013,16 +11000,16 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" t="s">
         <v>419</v>
       </c>
-      <c r="C59" t="s">
-        <v>219</v>
-      </c>
       <c r="D59" s="10">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F59" s="4">
-        <v>41460</v>
+        <v>38534</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -11033,98 +11020,98 @@
         <v>420</v>
       </c>
       <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="F60" s="4">
+        <v>39689</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="15">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
         <v>421</v>
       </c>
-      <c r="D60" s="10">
-        <v>3.7</v>
-      </c>
-      <c r="F60" s="4">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="14">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>422</v>
-      </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D61" s="10">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="F61" s="4">
-        <v>44332</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="D62" s="10">
         <v>3.7</v>
       </c>
       <c r="F62" s="4">
-        <v>44332</v>
+        <v>41460</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C63" t="s">
         <v>424</v>
       </c>
-      <c r="C63" t="s">
-        <v>425</v>
-      </c>
       <c r="D63" s="10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F63" s="4">
-        <v>37820</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="D64" s="10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F64" s="4">
-        <v>38156</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="14">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>426</v>
+      </c>
+      <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="B65" t="s">
-        <v>427</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
       <c r="D65" s="10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F65" s="4">
-        <v>42195</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -11133,13 +11120,13 @@
       </c>
     </row>
     <row r="69" spans="1:6" s="5" customFormat="1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -11148,7 +11135,7 @@
       <c r="E69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11157,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -11165,7 +11152,7 @@
       <c r="D70" s="10">
         <v>3.84</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="4">
         <v>44050</v>
       </c>
@@ -11175,16 +11162,16 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="D71" s="10">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="F71" s="4">
-        <v>44332</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11192,16 +11179,16 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="D72" s="10">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="F72" s="4">
-        <v>44050</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -11209,16 +11196,16 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>430</v>
       </c>
       <c r="D73" s="10">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="F73" s="4">
-        <v>38485</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11226,100 +11213,117 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="D74" s="10">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F74" s="4">
         <v>38485</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="14">
+      <c r="A75" s="15">
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="12">
-        <v>3</v>
+        <v>430</v>
+      </c>
+      <c r="D75" s="10">
+        <v>3.1</v>
       </c>
       <c r="F75" s="4">
-        <v>38842</v>
+        <v>38485</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D76" s="12">
         <v>3</v>
       </c>
       <c r="F76" s="4">
-        <v>41033</v>
+        <v>38842</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="12">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F77" s="4">
-        <v>36014</v>
+        <v>41033</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D78" s="12">
         <v>2.9</v>
       </c>
       <c r="F78" s="4">
-        <v>37400</v>
+        <v>36014</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="14">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>436</v>
+      </c>
+      <c r="C79" t="s">
         <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>437</v>
-      </c>
-      <c r="C79" t="s">
-        <v>332</v>
       </c>
       <c r="D79" s="12">
         <v>2.9</v>
       </c>
       <c r="F79" s="4">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="14">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>437</v>
+      </c>
+      <c r="C80" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="F80" s="4">
         <v>39241</v>
       </c>
     </row>
@@ -11329,13 +11333,13 @@
       </c>
     </row>
     <row r="83" spans="1:6" s="5" customFormat="1">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -11344,7 +11348,7 @@
       <c r="E83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11527,8 +11531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A212C88-9FEE-4EFF-A228-7223FF8A2C95}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -11537,7 +11541,7 @@
     <col min="2" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11556,13 +11560,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -11571,7 +11575,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11751,13 +11755,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -11766,7 +11770,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11946,13 +11950,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -11961,7 +11965,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12141,13 +12145,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -12156,7 +12160,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12253,13 +12257,13 @@
         <v>484</v>
       </c>
       <c r="C52" t="s">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="D52" s="10">
-        <v>46.94</v>
+        <v>47.49</v>
       </c>
       <c r="F52" s="4">
-        <v>44332</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -12270,13 +12274,13 @@
         <v>485</v>
       </c>
       <c r="C53" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="D53" s="10">
-        <v>45.47</v>
+        <v>46.94</v>
       </c>
       <c r="F53" s="4">
-        <v>41810</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -12284,16 +12288,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
+        <v>486</v>
+      </c>
+      <c r="C54" t="s">
         <v>487</v>
       </c>
-      <c r="C54" t="s">
-        <v>246</v>
-      </c>
       <c r="D54" s="10">
-        <v>45.05</v>
+        <v>45.47</v>
       </c>
       <c r="F54" s="4">
-        <v>37428</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -12304,13 +12308,13 @@
         <v>488</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>246</v>
       </c>
       <c r="D55" s="10">
-        <v>44.19</v>
+        <v>45.05</v>
       </c>
       <c r="F55" s="4">
-        <v>44332</v>
+        <v>37428</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -12321,13 +12325,13 @@
         <v>489</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="D56" s="10">
-        <v>41.32</v>
+        <v>44.19</v>
       </c>
       <c r="F56" s="4">
-        <v>42566</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -12336,13 +12340,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -12351,7 +12355,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12360,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C61" t="s">
         <v>45</v>
@@ -12412,7 +12416,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C64" t="s">
         <v>246</v>
@@ -12429,7 +12433,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -12446,7 +12450,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C66" t="s">
         <v>216</v>
@@ -12480,10 +12484,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
+        <v>493</v>
+      </c>
+      <c r="C68" t="s">
         <v>494</v>
-      </c>
-      <c r="C68" t="s">
-        <v>495</v>
       </c>
       <c r="D68" s="10">
         <v>39.47</v>
@@ -12497,7 +12501,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C69" t="s">
         <v>257</v>
@@ -12514,7 +12518,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C70" t="s">
         <v>64</v>
@@ -12532,13 +12536,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -12547,7 +12551,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12556,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
         <v>132</v>
@@ -12573,7 +12577,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C76" t="s">
         <v>45</v>
@@ -12590,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
@@ -12607,7 +12611,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
         <v>376</v>
@@ -12624,7 +12628,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C79" t="s">
         <v>64</v>
@@ -12658,7 +12662,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C81" t="s">
         <v>268</v>
@@ -12675,7 +12679,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C82" t="s">
         <v>246</v>
@@ -12692,7 +12696,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C83" t="s">
         <v>121</v>
@@ -12709,10 +12713,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
+        <v>503</v>
+      </c>
+      <c r="C84" t="s">
         <v>504</v>
-      </c>
-      <c r="C84" t="s">
-        <v>505</v>
       </c>
       <c r="D84" s="10">
         <v>38.880000000000003</v>
@@ -12730,7 +12734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3AB92-3F00-409D-A557-1F922B760427}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -12760,13 +12764,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -12775,7 +12779,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12784,15 +12788,15 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" t="s">
         <v>506</v>
-      </c>
-      <c r="C5" t="s">
-        <v>507</v>
       </c>
       <c r="D5" s="10">
         <v>7.36</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="17">
         <v>0.8</v>
       </c>
       <c r="F5" s="4">
@@ -12812,7 +12816,7 @@
       <c r="D6" s="10">
         <v>7.31</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>1.6</v>
       </c>
       <c r="F6" s="4">
@@ -12827,12 +12831,12 @@
         <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D7" s="10">
         <v>7.29</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>0.9</v>
       </c>
       <c r="F7" s="4">
@@ -12844,7 +12848,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -12864,7 +12868,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -12882,10 +12886,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D10" s="10">
         <v>7.1</v>
@@ -12902,7 +12906,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -12920,10 +12924,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" t="s">
         <v>513</v>
-      </c>
-      <c r="C12" t="s">
-        <v>514</v>
       </c>
       <c r="D12" s="10">
         <v>7.05</v>
@@ -12979,13 +12983,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -12994,7 +12998,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13003,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -13023,7 +13027,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C20" t="s">
         <v>147</v>
@@ -13041,7 +13045,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -13061,7 +13065,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -13069,7 +13073,7 @@
       <c r="D22" s="10">
         <v>6.97</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="17">
         <v>0.5</v>
       </c>
       <c r="F22" s="4">
@@ -13081,7 +13085,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -13101,7 +13105,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C24" t="s">
         <v>164</v>
@@ -13157,7 +13161,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C27" t="s">
         <v>107</v>
@@ -13198,13 +13202,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -13213,7 +13217,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13222,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -13230,7 +13234,7 @@
       <c r="D33" s="10">
         <v>6.85</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="17">
         <v>-0.2</v>
       </c>
       <c r="F33" s="4">
@@ -13262,7 +13266,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -13282,7 +13286,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -13302,7 +13306,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C37" t="s">
         <v>53</v>
@@ -13322,10 +13326,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C38" t="s">
         <v>524</v>
-      </c>
-      <c r="C38" t="s">
-        <v>525</v>
       </c>
       <c r="D38" s="10">
         <v>6.52</v>
@@ -13362,7 +13366,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -13382,7 +13386,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -13423,13 +13427,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -13438,7 +13442,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13447,10 +13451,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>527</v>
+      </c>
+      <c r="C47" t="s">
         <v>528</v>
-      </c>
-      <c r="C47" t="s">
-        <v>529</v>
       </c>
       <c r="D47" s="10">
         <v>6.39</v>
@@ -13467,7 +13471,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C48" t="s">
         <v>220</v>
@@ -13475,7 +13479,7 @@
       <c r="D48" s="10">
         <v>6.2</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="17">
         <v>1.6</v>
       </c>
       <c r="F48" s="4">
@@ -13490,7 +13494,7 @@
         <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D49" s="10">
         <v>5.88</v>
@@ -13505,7 +13509,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C50" t="s">
         <v>220</v>
@@ -13528,7 +13532,7 @@
         <v>445</v>
       </c>
       <c r="C51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D51" s="10">
         <v>5.81</v>
@@ -13545,7 +13549,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C52" t="s">
         <v>235</v>
@@ -13565,10 +13569,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
+        <v>534</v>
+      </c>
+      <c r="C53" t="s">
         <v>535</v>
-      </c>
-      <c r="C53" t="s">
-        <v>536</v>
       </c>
       <c r="D53" s="10">
         <v>5.74</v>
@@ -13585,7 +13589,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C54" t="s">
         <v>347</v>
@@ -13593,7 +13597,7 @@
       <c r="D54" s="10">
         <v>5.73</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="17">
         <v>2.5</v>
       </c>
       <c r="F54" s="4">
@@ -13605,7 +13609,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
@@ -13625,7 +13629,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -13645,7 +13649,7 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C57" t="s">
         <v>347</v>
@@ -13666,13 +13670,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -13681,7 +13685,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13690,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -13710,7 +13714,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C62" t="s">
         <v>220</v>
@@ -13730,7 +13734,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -13738,7 +13742,7 @@
       <c r="D63" s="10">
         <v>5.72</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="17">
         <v>1.3</v>
       </c>
       <c r="F63" s="4">
@@ -13750,7 +13754,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C64" t="s">
         <v>152</v>
@@ -13770,7 +13774,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
@@ -13778,7 +13782,7 @@
       <c r="D65" s="10">
         <v>5.68</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="17">
         <v>-0.4</v>
       </c>
       <c r="F65" s="4">
@@ -13790,7 +13794,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C66" t="s">
         <v>220</v>
@@ -13798,7 +13802,7 @@
       <c r="D66" s="10">
         <v>5.68</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="17">
         <v>0.7</v>
       </c>
       <c r="F66" s="4">
@@ -13810,7 +13814,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
@@ -13818,7 +13822,7 @@
       <c r="D67" s="10">
         <v>5.67</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="17">
         <v>2.2000000000000002</v>
       </c>
       <c r="F67" s="4">
@@ -13851,7 +13855,7 @@
         <v>249</v>
       </c>
       <c r="C69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D69" s="10">
         <v>5.59</v>
@@ -13868,7 +13872,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -13893,13 +13897,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -13908,7 +13912,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13917,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C75" t="s">
         <v>64</v>
@@ -13925,7 +13929,7 @@
       <c r="D75" s="10">
         <v>5.82</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="17">
         <v>0.9</v>
       </c>
       <c r="F75" s="4">
@@ -13937,7 +13941,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C76" t="s">
         <v>168</v>
@@ -13945,7 +13949,7 @@
       <c r="D76" s="10">
         <v>5.75</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="17">
         <v>0.6</v>
       </c>
       <c r="F76" s="4">
@@ -13957,7 +13961,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C77" t="s">
         <v>45</v>
@@ -13965,7 +13969,7 @@
       <c r="D77" s="10">
         <v>5.73</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="17">
         <v>0.6</v>
       </c>
       <c r="F77" s="4">
@@ -13977,7 +13981,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C78" t="s">
         <v>132</v>
@@ -13997,7 +14001,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C79" t="s">
         <v>388</v>
@@ -14017,7 +14021,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C80" t="s">
         <v>383</v>
@@ -14057,7 +14061,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -14077,7 +14081,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C83" t="s">
         <v>132</v>
@@ -14085,7 +14089,7 @@
       <c r="D83" s="10">
         <v>5.38</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="17">
         <v>2.1</v>
       </c>
       <c r="F83" s="4">
@@ -14097,7 +14101,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C84" t="s">
         <v>147</v>
@@ -14117,10 +14121,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
+        <v>551</v>
+      </c>
+      <c r="C85" t="s">
         <v>552</v>
-      </c>
-      <c r="C85" t="s">
-        <v>553</v>
       </c>
       <c r="D85" s="10">
         <v>5.36</v>
@@ -14142,8 +14146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE631C3-EF31-4935-8D2C-303DE0FA2CF9}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H52"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -14153,13 +14157,13 @@
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="19"/>
+    <col min="6" max="6" width="8.7109375" style="10"/>
     <col min="7" max="7" width="10.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C1" s="13">
         <f>Samenvatting!C1</f>
@@ -14168,36 +14172,36 @@
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" t="s">
         <v>555</v>
       </c>
-      <c r="B4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" t="s">
         <v>558</v>
-      </c>
-      <c r="B5" t="s">
-        <v>559</v>
       </c>
       <c r="C5" t="str">
         <f>Discus!B5</f>
@@ -14216,15 +14220,15 @@
         <v>38926</v>
       </c>
       <c r="H5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C6" t="str">
         <f>Discus!B19</f>
@@ -14243,15 +14247,15 @@
         <v>41495</v>
       </c>
       <c r="H6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C7" t="str">
         <f>Discus!B33</f>
@@ -14270,15 +14274,15 @@
         <v>44022</v>
       </c>
       <c r="H7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C8" t="str">
         <f>Discus!B47</f>
@@ -14297,15 +14301,15 @@
         <v>39598</v>
       </c>
       <c r="H8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C9" t="str">
         <f>Discus!B61</f>
@@ -14324,15 +14328,15 @@
         <v>39598</v>
       </c>
       <c r="H9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C10" t="str">
         <f>Discus!B75</f>
@@ -14351,15 +14355,15 @@
         <v>44778</v>
       </c>
       <c r="H10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C11" t="str">
         <f>Hoog!B5</f>
@@ -14378,15 +14382,15 @@
         <v>37135</v>
       </c>
       <c r="H11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C12" t="str">
         <f>Hoog!B19</f>
@@ -14405,15 +14409,15 @@
         <v>41131</v>
       </c>
       <c r="H12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C13" t="str">
         <f>Hoog!B36</f>
@@ -14432,15 +14436,15 @@
         <v>39626</v>
       </c>
       <c r="H13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C14" t="str">
         <f>Hoog!B50</f>
@@ -14459,15 +14463,15 @@
         <v>43686</v>
       </c>
       <c r="H14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C15" t="str">
         <f>Hoog!B64</f>
@@ -14486,15 +14490,15 @@
         <v>44050</v>
       </c>
       <c r="H15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C16" t="str">
         <f>Hoog!B78</f>
@@ -14513,15 +14517,15 @@
         <v>44022</v>
       </c>
       <c r="H16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C17" t="str">
         <f>HSS!B5</f>
@@ -14535,7 +14539,7 @@
         <f>HSS!D5</f>
         <v>15.54</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="10">
         <f>HSS!E5</f>
         <v>1.2</v>
       </c>
@@ -14544,15 +14548,15 @@
         <v>44750</v>
       </c>
       <c r="H17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C18" t="str">
         <f>HSS!B19</f>
@@ -14566,7 +14570,7 @@
         <f>HSS!D19</f>
         <v>15.11</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="10">
         <f>HSS!E19</f>
         <v>1.6</v>
       </c>
@@ -14575,15 +14579,15 @@
         <v>43686</v>
       </c>
       <c r="H18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C19" t="str">
         <f>HSS!B33</f>
@@ -14597,7 +14601,7 @@
         <f>HSS!D33</f>
         <v>13.31</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="10">
         <f>HSS!E33</f>
         <v>0</v>
       </c>
@@ -14606,15 +14610,15 @@
         <v>38576</v>
       </c>
       <c r="H19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C20" t="str">
         <f>HSS!B47</f>
@@ -14628,7 +14632,7 @@
         <f>HSS!D47</f>
         <v>12.66</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="10">
         <f>HSS!E47</f>
         <v>0</v>
       </c>
@@ -14637,15 +14641,15 @@
         <v>42195</v>
       </c>
       <c r="H20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C21" t="str">
         <f>HSS!B61</f>
@@ -14659,7 +14663,7 @@
         <f>HSS!D61</f>
         <v>11.2</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="10">
         <f>HSS!E61</f>
         <v>1</v>
       </c>
@@ -14668,15 +14672,15 @@
         <v>43637</v>
       </c>
       <c r="H21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C22" t="str">
         <f>HSS!B75</f>
@@ -14690,7 +14694,7 @@
         <f>HSS!D75</f>
         <v>11.38</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="10">
         <f>HSS!E75</f>
         <v>1.2</v>
       </c>
@@ -14699,15 +14703,15 @@
         <v>43294</v>
       </c>
       <c r="H22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C23" t="str">
         <f>Kogelslingeren!B5</f>
@@ -14721,24 +14725,20 @@
         <f>Kogelslingeren!D5</f>
         <v>67.650000000000006</v>
       </c>
-      <c r="F23" s="19">
-        <f>Kogelslingeren!E5</f>
-        <v>0</v>
-      </c>
       <c r="G23" s="13">
         <f>Kogelslingeren!F5</f>
         <v>37864</v>
       </c>
       <c r="H23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C24" t="str">
         <f>Kogelslingeren!B19</f>
@@ -14752,24 +14752,20 @@
         <f>Kogelslingeren!D19</f>
         <v>67.19</v>
       </c>
-      <c r="F24" s="19">
-        <f>Kogelslingeren!E19</f>
-        <v>0</v>
-      </c>
       <c r="G24" s="13">
         <f>Kogelslingeren!F19</f>
         <v>41397</v>
       </c>
       <c r="H24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C25" t="str">
         <f>Kogelslingeren!B33</f>
@@ -14783,24 +14779,20 @@
         <f>Kogelslingeren!D33</f>
         <v>72.540000000000006</v>
       </c>
-      <c r="F25" s="19">
-        <f>Kogelslingeren!E33</f>
-        <v>0</v>
-      </c>
       <c r="G25" s="13">
         <f>Kogelslingeren!F33</f>
         <v>41152</v>
       </c>
       <c r="H25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C26" t="str">
         <f>Kogelslingeren!B47</f>
@@ -14814,24 +14806,20 @@
         <f>Kogelslingeren!D47</f>
         <v>61.56</v>
       </c>
-      <c r="F26" s="19">
-        <f>Kogelslingeren!E47</f>
-        <v>0</v>
-      </c>
       <c r="G26" s="13">
         <f>Kogelslingeren!F47</f>
         <v>44332</v>
       </c>
       <c r="H26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C27" t="str">
         <f>Kogelslingeren!B61</f>
@@ -14845,24 +14833,20 @@
         <f>Kogelslingeren!D61</f>
         <v>52.52</v>
       </c>
-      <c r="F27" s="19">
-        <f>Kogelslingeren!E61</f>
-        <v>0</v>
-      </c>
       <c r="G27" s="13">
         <f>Kogelslingeren!F61</f>
         <v>36728</v>
       </c>
       <c r="H27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C28" t="str">
         <f>Kogelslingeren!B75</f>
@@ -14876,24 +14860,20 @@
         <f>Kogelslingeren!D75</f>
         <v>65.56</v>
       </c>
-      <c r="F28" s="19">
-        <f>Kogelslingeren!E75</f>
-        <v>0</v>
-      </c>
       <c r="G28" s="13">
         <f>Kogelslingeren!F75</f>
         <v>44332</v>
       </c>
       <c r="H28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C29" t="str">
         <f>Kogelstoten!B5</f>
@@ -14907,24 +14887,20 @@
         <f>Kogelstoten!D5</f>
         <v>19.02</v>
       </c>
-      <c r="F29" s="19">
-        <f>Kogelstoten!E5</f>
-        <v>0</v>
-      </c>
       <c r="G29" s="13">
         <f>Kogelstoten!F5</f>
         <v>41131</v>
       </c>
       <c r="H29" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C30" t="str">
         <f>Kogelstoten!B19</f>
@@ -14938,24 +14914,20 @@
         <f>Kogelstoten!D19</f>
         <v>16.940000000000001</v>
       </c>
-      <c r="F30" s="19">
-        <f>Kogelstoten!E19</f>
-        <v>0</v>
-      </c>
       <c r="G30" s="13">
         <f>Kogelstoten!F19</f>
         <v>45058</v>
       </c>
       <c r="H30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C31" t="str">
         <f>Kogelstoten!B33</f>
@@ -14969,24 +14941,20 @@
         <f>Kogelstoten!D33</f>
         <v>18.55</v>
       </c>
-      <c r="F31" s="19">
-        <f>Kogelstoten!E33</f>
-        <v>0</v>
-      </c>
       <c r="G31" s="13">
         <f>Kogelstoten!F33</f>
         <v>44673</v>
       </c>
       <c r="H31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C32" t="str">
         <f>Kogelstoten!B47</f>
@@ -15000,24 +14968,20 @@
         <f>Kogelstoten!D47</f>
         <v>17.149999999999999</v>
       </c>
-      <c r="F32" s="19">
-        <f>Kogelstoten!E47</f>
-        <v>0</v>
-      </c>
       <c r="G32" s="13">
         <f>Kogelstoten!F47</f>
         <v>44050</v>
       </c>
       <c r="H32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C33" t="str">
         <f>Kogelstoten!B61</f>
@@ -15031,24 +14995,20 @@
         <f>Kogelstoten!D61</f>
         <v>16.12</v>
       </c>
-      <c r="F33" s="19">
-        <f>Kogelstoten!E61</f>
-        <v>0</v>
-      </c>
       <c r="G33" s="13">
         <f>Kogelstoten!F61</f>
         <v>44332</v>
       </c>
       <c r="H33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C34" t="str">
         <f>Kogelstoten!B75</f>
@@ -15062,24 +15022,20 @@
         <f>Kogelstoten!D75</f>
         <v>16.21</v>
       </c>
-      <c r="F34" s="19">
-        <f>Kogelstoten!E75</f>
-        <v>0</v>
-      </c>
       <c r="G34" s="13">
         <f>Kogelstoten!F75</f>
         <v>37820</v>
       </c>
       <c r="H34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B35" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C35" t="str">
         <f>Polshoog!B5</f>
@@ -15093,24 +15049,20 @@
         <f>Polshoog!D5</f>
         <v>5.2</v>
       </c>
-      <c r="F35" s="19">
-        <f>Polshoog!E5</f>
-        <v>0</v>
-      </c>
       <c r="G35" s="13">
         <f>Polshoog!F5</f>
         <v>41103</v>
       </c>
       <c r="H35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C36" t="str">
         <f>Polshoog!B20</f>
@@ -15124,24 +15076,20 @@
         <f>Polshoog!D20</f>
         <v>4.8</v>
       </c>
-      <c r="F36" s="19">
-        <f>Polshoog!E20</f>
-        <v>0</v>
-      </c>
       <c r="G36" s="13">
         <f>Polshoog!F20</f>
         <v>37456</v>
       </c>
       <c r="H36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C37" t="str">
         <f>Polshoog!B39</f>
@@ -15155,55 +15103,47 @@
         <f>Polshoog!D39</f>
         <v>4.42</v>
       </c>
-      <c r="F37" s="19">
-        <f>Polshoog!E39</f>
-        <v>0</v>
-      </c>
       <c r="G37" s="13">
         <f>Polshoog!F39</f>
         <v>44329</v>
       </c>
       <c r="H37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C38" t="str">
         <f>Polshoog!B56</f>
-        <v>Rianna Galiart</v>
+        <v>Sanne Rombouts</v>
       </c>
       <c r="D38" t="str">
         <f>Polshoog!C56</f>
-        <v>Lycurgus</v>
+        <v>AAV'36</v>
       </c>
       <c r="E38" s="10">
         <f>Polshoog!D56</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F38" s="19">
-        <f>Polshoog!E56</f>
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="G38" s="13">
         <f>Polshoog!F56</f>
-        <v>39241</v>
+        <v>45079</v>
       </c>
       <c r="H38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C39" t="str">
         <f>Polshoog!B70</f>
@@ -15217,24 +15157,20 @@
         <f>Polshoog!D70</f>
         <v>3.84</v>
       </c>
-      <c r="F39" s="19">
-        <f>Polshoog!E70</f>
-        <v>0</v>
-      </c>
       <c r="G39" s="13">
         <f>Polshoog!F70</f>
         <v>44050</v>
       </c>
       <c r="H39" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C40" t="str">
         <f>Polshoog!B84</f>
@@ -15248,24 +15184,20 @@
         <f>Polshoog!D84</f>
         <v>3.5</v>
       </c>
-      <c r="F40" s="19">
-        <f>Polshoog!E84</f>
-        <v>0</v>
-      </c>
       <c r="G40" s="13">
         <f>Polshoog!F84</f>
         <v>35979</v>
       </c>
       <c r="H40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C41" t="str">
         <f>Speer!B5</f>
@@ -15279,24 +15211,20 @@
         <f>Speer!D5</f>
         <v>71.86</v>
       </c>
-      <c r="F41" s="19">
-        <f>Speer!E5</f>
-        <v>0</v>
-      </c>
       <c r="G41" s="13">
         <f>Speer!F5</f>
         <v>44332</v>
       </c>
       <c r="H41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C42" t="str">
         <f>Speer!B19</f>
@@ -15310,24 +15238,20 @@
         <f>Speer!D19</f>
         <v>66.42</v>
       </c>
-      <c r="F42" s="19">
-        <f>Speer!E19</f>
-        <v>0</v>
-      </c>
       <c r="G42" s="13">
         <f>Speer!F19</f>
         <v>44332</v>
       </c>
       <c r="H42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C43" t="str">
         <f>Speer!B33</f>
@@ -15341,24 +15265,20 @@
         <f>Speer!D33</f>
         <v>67.12</v>
       </c>
-      <c r="F43" s="19">
-        <f>Speer!E33</f>
-        <v>0</v>
-      </c>
       <c r="G43" s="13">
         <f>Speer!F33</f>
         <v>44332</v>
       </c>
       <c r="H43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B44" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C44" t="str">
         <f>Speer!B47</f>
@@ -15372,24 +15292,20 @@
         <f>Speer!D47</f>
         <v>57.84</v>
       </c>
-      <c r="F44" s="19">
-        <f>Speer!E47</f>
-        <v>0</v>
-      </c>
       <c r="G44" s="13">
         <f>Speer!F47</f>
         <v>38156</v>
       </c>
       <c r="H44" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C45" t="str">
         <f>Speer!B61</f>
@@ -15403,24 +15319,20 @@
         <f>Speer!D61</f>
         <v>50.34</v>
       </c>
-      <c r="F45" s="19">
-        <f>Speer!E61</f>
-        <v>0</v>
-      </c>
       <c r="G45" s="13">
         <f>Speer!F61</f>
         <v>44332</v>
       </c>
       <c r="H45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C46" t="str">
         <f>Speer!B75</f>
@@ -15434,24 +15346,20 @@
         <f>Speer!D75</f>
         <v>47.17</v>
       </c>
-      <c r="F46" s="19">
-        <f>Speer!E75</f>
-        <v>0</v>
-      </c>
       <c r="G46" s="13">
         <f>Speer!F75</f>
         <v>42153</v>
       </c>
       <c r="H46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C47" t="str">
         <f>Verspringen!B5</f>
@@ -15465,7 +15373,7 @@
         <f>Verspringen!D5</f>
         <v>7.36</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="10">
         <f>Verspringen!E5</f>
         <v>0.8</v>
       </c>
@@ -15474,15 +15382,15 @@
         <v>44750</v>
       </c>
       <c r="H47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C48" t="str">
         <f>Verspringen!B19</f>
@@ -15496,7 +15404,7 @@
         <f>Verspringen!D19</f>
         <v>7.33</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="10">
         <f>Verspringen!E19</f>
         <v>0.9</v>
       </c>
@@ -15505,15 +15413,15 @@
         <v>44694</v>
       </c>
       <c r="H48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B49" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C49" t="str">
         <f>Verspringen!B33</f>
@@ -15527,7 +15435,7 @@
         <f>Verspringen!D33</f>
         <v>6.85</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="10">
         <f>Verspringen!E33</f>
         <v>-0.2</v>
       </c>
@@ -15536,15 +15444,15 @@
         <v>44050</v>
       </c>
       <c r="H49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C50" t="str">
         <f>Verspringen!B47</f>
@@ -15558,7 +15466,7 @@
         <f>Verspringen!D47</f>
         <v>6.39</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="10">
         <f>Verspringen!E47</f>
         <v>0.3</v>
       </c>
@@ -15567,15 +15475,15 @@
         <v>42545</v>
       </c>
       <c r="H50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C51" t="str">
         <f>Verspringen!B61</f>
@@ -15589,7 +15497,7 @@
         <f>Verspringen!D61</f>
         <v>6.09</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="10">
         <f>Verspringen!E61</f>
         <v>3.2</v>
       </c>
@@ -15598,15 +15506,15 @@
         <v>44332</v>
       </c>
       <c r="H51" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B52" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C52" t="str">
         <f>Verspringen!B75</f>
@@ -15620,7 +15528,7 @@
         <f>Verspringen!D75</f>
         <v>5.82</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="10">
         <f>Verspringen!E75</f>
         <v>0.9</v>
       </c>
@@ -15629,7 +15537,7 @@
         <v>44332</v>
       </c>
       <c r="H52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
+++ b/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3797" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD1789E-D9FF-40B5-934E-EB1139E506C2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="3" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Discus" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="589">
   <si>
     <t>Mannen</t>
   </si>
@@ -1901,13 +1901,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3441,7 +3441,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3454,11 +3454,11 @@
       <c r="A1" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="20">
-        <v>45061</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21">
+        <v>45094</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -3484,30 +3484,30 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="17" t="s">
@@ -3844,7 +3844,7 @@
         <f>Polshoog!D$56</f>
         <v>4.13</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <f>Polshoog!D65</f>
         <v>3.7</v>
       </c>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4898,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6957942-D991-4424-BBD7-6AB28243DB19}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6272,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1D5E1-3BCE-400F-AF67-CFC9DF249C88}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7639,8 +7639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC66621-F239-4EEE-89F3-9BEAE8A324F9}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8498,16 +8498,16 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="D62" s="10">
-        <v>49.3</v>
+        <v>49.56</v>
       </c>
       <c r="F62" s="4">
-        <v>43588</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8515,16 +8515,16 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="D63" s="10">
-        <v>49.08</v>
+        <v>49.3</v>
       </c>
       <c r="F63" s="4">
-        <v>45058</v>
+        <v>43588</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8851,8 +8851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA53186-195F-46EF-BA9A-D41FB55891C0}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12734,8 +12734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3AB92-3F00-409D-A557-1F922B760427}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -12744,7 +12744,7 @@
     <col min="2" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13529,19 +13529,19 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
-        <v>532</v>
+        <v>74</v>
       </c>
       <c r="D51" s="10">
         <v>5.81</v>
       </c>
       <c r="E51" s="7">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="F51" s="4">
-        <v>40718</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -13549,19 +13549,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>533</v>
+        <v>445</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>532</v>
       </c>
       <c r="D52" s="10">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="E52" s="7">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
-        <v>42174</v>
+        <v>40718</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -13569,19 +13569,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C53" t="s">
-        <v>535</v>
+        <v>235</v>
       </c>
       <c r="D53" s="10">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="E53" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="F53" s="4">
-        <v>43637</v>
+        <v>42174</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -13589,19 +13589,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>535</v>
       </c>
       <c r="D54" s="10">
-        <v>5.73</v>
-      </c>
-      <c r="E54" s="17">
-        <v>2.5</v>
+        <v>5.74</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F54" s="4">
-        <v>44694</v>
+        <v>43637</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -13609,58 +13609,78 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="D55" s="10">
-        <v>5.66</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0.9</v>
+        <v>5.73</v>
+      </c>
+      <c r="E55" s="17">
+        <v>2.5</v>
       </c>
       <c r="F55" s="4">
-        <v>44722</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D56" s="10">
         <v>5.66</v>
       </c>
       <c r="E56" s="7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F56" s="4">
-        <v>44332</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>8</v>
       </c>
       <c r="D57" s="10">
         <v>5.66</v>
       </c>
       <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>538</v>
+      </c>
+      <c r="C58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D58" s="10">
+        <v>5.66</v>
+      </c>
+      <c r="E58" s="7">
         <v>1.3</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>44694</v>
       </c>
     </row>
@@ -14167,7 +14187,7 @@
       </c>
       <c r="C1" s="13">
         <f>Samenvatting!C1</f>
-        <v>45061</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">

--- a/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
+++ b/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b50eeb736046b11/Bureaublad/EvE/Atletiek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3797" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD1789E-D9FF-40B5-934E-EB1139E506C2}"/>
+  <xr:revisionPtr revIDLastSave="3847" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEC19E9B-8C68-45C8-AD93-150DE6BB19AA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="2" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Discus" sheetId="8" r:id="rId1"/>
@@ -639,6 +639,12 @@
     <t>Fortius</t>
   </si>
   <si>
+    <t>Olivier Welre</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
     <t>Navaro doulany Aboikonie</t>
   </si>
   <si>
@@ -678,72 +684,66 @@
     <t>Erwin Slokker</t>
   </si>
   <si>
-    <t>Tijmen Meijer</t>
+    <t>Ethan Welre</t>
+  </si>
+  <si>
+    <t>Navaro Aboikonie</t>
+  </si>
+  <si>
+    <t>Wik Breure</t>
+  </si>
+  <si>
+    <t>Pijnenburg</t>
+  </si>
+  <si>
+    <t>Hent van Schoten</t>
+  </si>
+  <si>
+    <t>AV Oss '78</t>
+  </si>
+  <si>
+    <t>Fabian Biondina</t>
+  </si>
+  <si>
+    <t>Alexander Soethout</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>AV 1923</t>
+  </si>
+  <si>
+    <t>Jelle van der Zon</t>
+  </si>
+  <si>
+    <t>De Spartaan</t>
+  </si>
+  <si>
+    <t>Ramon Biondina</t>
+  </si>
+  <si>
+    <t>Zuidwal</t>
+  </si>
+  <si>
+    <t>Bram van der Laan</t>
+  </si>
+  <si>
+    <t>BAV</t>
+  </si>
+  <si>
+    <t>Robin Coops</t>
+  </si>
+  <si>
+    <t>Jonathan Pronk</t>
+  </si>
+  <si>
+    <t>Bren Simon Meijer</t>
   </si>
   <si>
     <t>NEA-Volharding</t>
   </si>
   <si>
-    <t>Navaro Aboikonie</t>
-  </si>
-  <si>
-    <t>Wik Breure</t>
-  </si>
-  <si>
-    <t>Pijnenburg</t>
-  </si>
-  <si>
-    <t>Hent van Schoten</t>
-  </si>
-  <si>
-    <t>AV Oss '78</t>
-  </si>
-  <si>
-    <t>Fabian Biondina</t>
-  </si>
-  <si>
-    <t>Alexander Soethout</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>AV 1923</t>
-  </si>
-  <si>
-    <t>Jelle van der Zon</t>
-  </si>
-  <si>
-    <t>De Spartaan</t>
-  </si>
-  <si>
-    <t>Ramon Biondina</t>
-  </si>
-  <si>
-    <t>Alwin Papegaaij</t>
-  </si>
-  <si>
-    <t>AV Isala 96</t>
-  </si>
-  <si>
-    <t>Zuidwal</t>
-  </si>
-  <si>
-    <t>Bram van der Laan</t>
-  </si>
-  <si>
-    <t>BAV</t>
-  </si>
-  <si>
-    <t>Robin Coops</t>
-  </si>
-  <si>
-    <t>Jonathan Pronk</t>
-  </si>
-  <si>
-    <t>Bren Simon Meijer</t>
-  </si>
-  <si>
     <t>Pascal van Balen</t>
   </si>
   <si>
@@ -1362,6 +1362,9 @@
     <t>Jose Schoenmaker</t>
   </si>
   <si>
+    <t>Marijn Kieft</t>
+  </si>
+  <si>
     <t>Liesbet van Roie</t>
   </si>
   <si>
@@ -1390,9 +1393,6 @@
   </si>
   <si>
     <t>Yvonne van Burg</t>
-  </si>
-  <si>
-    <t>M Sleumer</t>
   </si>
   <si>
     <t>Mart ten Berge</t>
@@ -1895,13 +1895,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2253,13 +2253,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -2268,10 +2268,10 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -2456,13 +2456,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2471,7 +2471,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2652,13 +2652,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -2667,7 +2667,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2848,13 +2848,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -2863,7 +2863,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3044,13 +3044,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -3059,7 +3059,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3241,13 +3241,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -3256,7 +3256,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
         <v>553</v>
       </c>
       <c r="C1" s="21">
-        <v>45094</v>
+        <v>45116</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -3510,40 +3510,40 @@
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="18" t="s">
         <v>576</v>
       </c>
     </row>
@@ -3606,19 +3606,19 @@
       </c>
       <c r="B10" s="10">
         <f>HSS!D$5</f>
-        <v>15.54</v>
+        <v>16.02</v>
       </c>
       <c r="C10" s="10">
         <f>HSS!D$14</f>
-        <v>13.92</v>
+        <v>14.02</v>
       </c>
       <c r="D10" s="10">
         <f>HSS!D$19</f>
-        <v>15.11</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="E10" s="10">
         <f>HSS!D$28</f>
-        <v>12.92</v>
+        <v>13.1</v>
       </c>
       <c r="F10">
         <f>HSS!D$33</f>
@@ -3844,7 +3844,7 @@
         <f>Polshoog!D$56</f>
         <v>4.13</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <f>Polshoog!D65</f>
         <v>3.7</v>
       </c>
@@ -3858,11 +3858,11 @@
       </c>
       <c r="L14" s="10">
         <f>Polshoog!D$84</f>
-        <v>3.5</v>
+        <v>3.96</v>
       </c>
       <c r="M14" s="10">
         <f>Polshoog!D$93</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4028,13 +4028,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4043,7 +4043,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4171,13 +4171,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4186,7 +4186,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4314,13 +4314,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -4329,7 +4329,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4457,13 +4457,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -4472,7 +4472,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4603,13 +4603,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -4618,7 +4618,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4752,13 +4752,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -4767,7 +4767,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4898,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6957942-D991-4424-BBD7-6AB28243DB19}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4927,13 +4927,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4942,7 +4942,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5122,13 +5122,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -5137,7 +5137,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5385,13 +5385,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -5400,7 +5400,7 @@
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5597,13 +5597,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -5612,7 +5612,7 @@
       <c r="E49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5792,13 +5792,13 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="5" customFormat="1">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -5807,7 +5807,7 @@
       <c r="E63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       <c r="D64" s="10">
         <v>1.71</v>
       </c>
-      <c r="E64" s="17"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="4">
         <v>44050</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="D67" s="10">
         <v>1.7</v>
       </c>
-      <c r="E67" s="17"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="4">
         <v>42174</v>
       </c>
@@ -6006,13 +6006,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" s="5" customFormat="1">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -6021,7 +6021,7 @@
       <c r="E77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6272,8 +6272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1D5E1-3BCE-400F-AF67-CFC9DF249C88}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6302,13 +6302,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -6317,7 +6317,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6329,16 +6329,16 @@
         <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="D5" s="10">
-        <v>15.54</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1.2</v>
+        <v>16.02</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.6</v>
       </c>
       <c r="F5" s="4">
-        <v>44750</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6346,19 +6346,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10">
-        <v>15.48</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.2000000000000002</v>
+        <v>15.54</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.2</v>
       </c>
       <c r="F6" s="4">
-        <v>39668</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6366,19 +6366,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10">
-        <v>14.79</v>
+        <v>15.48</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F7" s="4">
-        <v>39304</v>
+        <v>39668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6392,13 +6392,13 @@
         <v>202</v>
       </c>
       <c r="D8" s="10">
-        <v>14.53</v>
+        <v>14.79</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="F8" s="4">
-        <v>39241</v>
+        <v>39304</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6412,13 +6412,13 @@
         <v>204</v>
       </c>
       <c r="D9" s="10">
-        <v>14.48</v>
-      </c>
-      <c r="E9" s="17">
-        <v>3.1</v>
+        <v>14.53</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>43686</v>
+        <v>39241</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6429,76 +6429,76 @@
         <v>205</v>
       </c>
       <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="10">
+        <v>14.48</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>14.34</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>1.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>41810</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10">
-        <v>14.26</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="4">
-        <v>40368</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10">
         <v>14.26</v>
       </c>
       <c r="E12" s="7">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F12" s="4">
-        <v>42909</v>
+        <v>40368</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
-        <v>9</v>
+      <c r="A13" s="14">
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="D13" s="10">
-        <v>14.02</v>
+        <v>14.26</v>
       </c>
       <c r="E13" s="7">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="F13" s="4">
-        <v>41033</v>
+        <v>42909</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6506,19 +6506,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="D14" s="10">
-        <v>13.92</v>
+        <v>14.02</v>
       </c>
       <c r="E14" s="7">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="F14" s="4">
-        <v>40368</v>
+        <v>41033</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6527,13 +6527,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6542,7 +6542,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6554,76 +6554,76 @@
         <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="D19" s="10">
-        <v>15.11</v>
-      </c>
-      <c r="E19" s="17">
-        <v>1.6</v>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1.3</v>
       </c>
       <c r="F19" s="4">
-        <v>43686</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="D20" s="10">
-        <v>13.71</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1.9</v>
+        <v>15.11</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1.6</v>
       </c>
       <c r="F20" s="4">
-        <v>40368</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
         <v>215</v>
-      </c>
-      <c r="C21" t="s">
-        <v>216</v>
       </c>
       <c r="D21" s="10">
         <v>13.71</v>
       </c>
       <c r="E21" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="F21" s="4">
+        <v>40368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="10">
+        <v>13.71</v>
+      </c>
+      <c r="E22" s="7">
         <v>2.5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>42594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="10">
-        <v>13.64</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="F22" s="4">
-        <v>44030</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6634,16 +6634,16 @@
         <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="D23" s="10">
-        <v>13.59</v>
+        <v>13.64</v>
       </c>
       <c r="E23" s="7">
-        <v>-1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F23" s="4">
-        <v>42888</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6651,19 +6651,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
         <v>220</v>
       </c>
       <c r="D24" s="10">
-        <v>13.27</v>
+        <v>13.59</v>
       </c>
       <c r="E24" s="7">
-        <v>1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="F24" s="4">
-        <v>41810</v>
+        <v>42888</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6671,77 +6671,79 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="10">
+        <v>13.27</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>41810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="15">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>13.22</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>41831</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="10">
-        <v>13.1</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>41859</v>
+        <v>41831</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
         <v>223</v>
-      </c>
-      <c r="C27" t="s">
-        <v>103</v>
       </c>
       <c r="D27" s="10">
         <v>13.1</v>
       </c>
       <c r="E27" s="7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>44030</v>
+        <v>41859</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28">
-        <v>10</v>
+      <c r="A28" s="14">
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="D28" s="10">
-        <v>12.92</v>
-      </c>
-      <c r="E28" s="8"/>
+        <v>13.1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1.8</v>
+      </c>
       <c r="F28" s="4">
-        <v>37864</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6750,13 +6752,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -6765,7 +6767,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6812,10 +6814,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35" s="10">
         <v>13.02</v>
@@ -6830,10 +6832,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" t="s">
         <v>227</v>
-      </c>
-      <c r="C36" t="s">
-        <v>228</v>
       </c>
       <c r="D36" s="10">
         <v>12.96</v>
@@ -6850,7 +6852,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -6868,7 +6870,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -6906,10 +6908,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" t="s">
         <v>231</v>
-      </c>
-      <c r="C40" t="s">
-        <v>211</v>
       </c>
       <c r="D40" s="10">
         <v>12.74</v>
@@ -6965,13 +6967,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -6980,7 +6982,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7077,7 +7079,7 @@
       <c r="D51" s="10">
         <v>12.28</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="18">
         <v>-0.5</v>
       </c>
       <c r="F51" s="4">
@@ -7134,7 +7136,7 @@
       <c r="D54" s="10">
         <v>11.81</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="18">
         <v>1.3</v>
       </c>
       <c r="F54" s="4">
@@ -7192,13 +7194,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -7207,7 +7209,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7412,13 +7414,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -7427,7 +7429,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7484,7 +7486,7 @@
       <c r="D77" s="10">
         <v>11.26</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="18">
         <v>-2.5</v>
       </c>
       <c r="F77" s="4">
@@ -7582,7 +7584,7 @@
       <c r="D82" s="10">
         <v>10.76</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="18">
         <v>-0.1</v>
       </c>
       <c r="F82" s="4">
@@ -7659,7 +7661,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7668,13 +7670,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -7683,10 +7685,10 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -7696,7 +7698,7 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D5" s="10">
         <v>67.650000000000006</v>
@@ -7764,7 +7766,7 @@
         <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" s="10">
         <v>59.35</v>
@@ -7868,13 +7870,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -7883,7 +7885,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8064,13 +8066,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -8079,7 +8081,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8260,13 +8262,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -8275,7 +8277,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8456,13 +8458,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -8471,7 +8473,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8652,13 +8654,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -8667,7 +8669,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8871,7 +8873,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8880,13 +8882,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -8895,7 +8897,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8912,7 +8914,7 @@
       <c r="D5" s="10">
         <v>19.02</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="4">
         <v>41131</v>
       </c>
@@ -8999,7 +9001,7 @@
       <c r="D10" s="10">
         <v>16.53</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="4">
         <v>36000</v>
       </c>
@@ -9082,13 +9084,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -9097,7 +9099,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9114,7 +9116,7 @@
       <c r="D19" s="10">
         <v>16.940000000000001</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="4">
         <v>45058</v>
       </c>
@@ -9222,7 +9224,7 @@
       <c r="D25" s="10">
         <v>15.43</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="4">
         <v>36376</v>
       </c>
@@ -9281,7 +9283,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="E29" s="17"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -9289,13 +9291,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -9304,7 +9306,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9494,13 +9496,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -9509,7 +9511,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9685,7 +9687,7 @@
       <c r="D56" s="10">
         <v>13.61</v>
       </c>
-      <c r="E56" s="17"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="4">
         <v>38842</v>
       </c>
@@ -9696,13 +9698,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -9711,7 +9713,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9872,7 +9874,7 @@
       <c r="D69" s="10">
         <v>12.44</v>
       </c>
-      <c r="E69" s="17"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="4">
         <v>41831</v>
       </c>
@@ -9900,13 +9902,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -9915,7 +9917,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10016,7 +10018,7 @@
         <v>361</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D80" s="10">
         <v>14.6</v>
@@ -10057,7 +10059,7 @@
       <c r="D82" s="10">
         <v>14.43</v>
       </c>
-      <c r="E82" s="17"/>
+      <c r="E82" s="18"/>
       <c r="F82" s="4">
         <v>42909</v>
       </c>
@@ -10106,8 +10108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31CB02-91F0-4C9B-9EAB-0CB6F32967A5}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -10126,7 +10128,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10135,13 +10137,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -10150,7 +10152,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10365,13 +10367,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -10380,7 +10382,7 @@
       <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10662,13 +10664,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -10677,7 +10679,7 @@
       <c r="E38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10925,13 +10927,13 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="5" customFormat="1">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -10940,7 +10942,7 @@
       <c r="E55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11054,7 +11056,7 @@
         <v>422</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D62" s="10">
         <v>3.7</v>
@@ -11120,13 +11122,13 @@
       </c>
     </row>
     <row r="69" spans="1:6" s="5" customFormat="1">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -11135,7 +11137,7 @@
       <c r="E69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11152,7 +11154,7 @@
       <c r="D70" s="10">
         <v>3.84</v>
       </c>
-      <c r="E70" s="17"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="4">
         <v>44050</v>
       </c>
@@ -11333,13 +11335,13 @@
       </c>
     </row>
     <row r="83" spans="1:6" s="5" customFormat="1">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -11348,7 +11350,7 @@
       <c r="E83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11360,13 +11362,13 @@
         <v>438</v>
       </c>
       <c r="C84" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="D84" s="10">
-        <v>3.5</v>
+        <v>3.96</v>
       </c>
       <c r="F84" s="4">
-        <v>35979</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11374,95 +11376,95 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
+        <v>439</v>
+      </c>
+      <c r="C85" t="s">
         <v>440</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="F85" s="4">
+        <v>35979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="15">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
         <v>441</v>
       </c>
-      <c r="D85" s="10">
+      <c r="C86" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" s="10">
         <v>3.43</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="4">
         <v>38604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="14">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
-        <v>442</v>
-      </c>
-      <c r="C86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D86" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="F86" s="4">
-        <v>38156</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
         <v>443</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D87" s="10">
         <v>3.4</v>
       </c>
       <c r="F87" s="4">
-        <v>39283</v>
+        <v>38156</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88">
-        <v>5</v>
+      <c r="A88" s="14">
+        <v>4</v>
       </c>
       <c r="B88" t="s">
         <v>444</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88" s="10">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="F88" s="4">
-        <v>44050</v>
+        <v>39283</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="14">
+      <c r="A89" s="15">
         <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>445</v>
       </c>
       <c r="C89" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="D89" s="10">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="F89" s="4">
-        <v>38156</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C90" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="D90" s="10">
         <v>3.2</v>
@@ -11473,53 +11475,53 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>430</v>
       </c>
       <c r="D91" s="10">
         <v>3.2</v>
       </c>
       <c r="F91" s="4">
-        <v>39934</v>
+        <v>38156</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>447</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D92" s="10">
         <v>3.2</v>
       </c>
       <c r="F92" s="4">
-        <v>40718</v>
+        <v>39934</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93">
-        <v>10</v>
+      <c r="A93" s="14">
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>448</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
       <c r="D93" s="10">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F93" s="4">
-        <v>36385</v>
+        <v>40718</v>
       </c>
     </row>
   </sheetData>
@@ -11551,7 +11553,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11560,13 +11562,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -11575,7 +11577,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11755,13 +11757,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -11770,7 +11772,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11950,13 +11952,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -11965,7 +11967,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12145,13 +12147,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -12160,7 +12162,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12340,13 +12342,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -12355,7 +12357,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12453,7 +12455,7 @@
         <v>492</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D66" s="10">
         <v>40.78</v>
@@ -12536,13 +12538,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -12551,7 +12553,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12734,8 +12736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3AB92-3F00-409D-A557-1F922B760427}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -12755,7 +12757,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12764,13 +12766,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -12779,7 +12781,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12796,7 +12798,7 @@
       <c r="D5" s="10">
         <v>7.36</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="18">
         <v>0.8</v>
       </c>
       <c r="F5" s="4">
@@ -12808,7 +12810,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -12816,7 +12818,7 @@
       <c r="D6" s="10">
         <v>7.31</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <v>1.6</v>
       </c>
       <c r="F6" s="4">
@@ -12836,7 +12838,7 @@
       <c r="D7" s="10">
         <v>7.29</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="18">
         <v>0.9</v>
       </c>
       <c r="F7" s="4">
@@ -12947,7 +12949,7 @@
         <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D13" s="10">
         <v>7.03</v>
@@ -12962,7 +12964,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -12983,13 +12985,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -12998,7 +13000,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13073,7 +13075,7 @@
       <c r="D22" s="10">
         <v>6.97</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="18">
         <v>0.5</v>
       </c>
       <c r="F22" s="4">
@@ -13141,7 +13143,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -13202,13 +13204,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -13217,7 +13219,7 @@
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13234,7 +13236,7 @@
       <c r="D33" s="10">
         <v>6.85</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="18">
         <v>-0.2</v>
       </c>
       <c r="F33" s="4">
@@ -13246,7 +13248,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -13406,10 +13408,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D42" s="10">
         <v>6.46</v>
@@ -13427,13 +13429,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -13442,7 +13444,7 @@
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13474,12 +13476,12 @@
         <v>529</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D48" s="10">
         <v>6.2</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="18">
         <v>1.6</v>
       </c>
       <c r="F48" s="4">
@@ -13512,7 +13514,7 @@
         <v>531</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D50" s="10">
         <v>5.84</v>
@@ -13549,7 +13551,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C52" t="s">
         <v>532</v>
@@ -13617,7 +13619,7 @@
       <c r="D55" s="10">
         <v>5.73</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="18">
         <v>2.5</v>
       </c>
       <c r="F55" s="4">
@@ -13690,13 +13692,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -13705,7 +13707,7 @@
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13737,7 +13739,7 @@
         <v>529</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D62" s="10">
         <v>5.73</v>
@@ -13762,7 +13764,7 @@
       <c r="D63" s="10">
         <v>5.72</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="18">
         <v>1.3</v>
       </c>
       <c r="F63" s="4">
@@ -13802,7 +13804,7 @@
       <c r="D65" s="10">
         <v>5.68</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="18">
         <v>-0.4</v>
       </c>
       <c r="F65" s="4">
@@ -13817,12 +13819,12 @@
         <v>531</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D66" s="10">
         <v>5.68</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="18">
         <v>0.7</v>
       </c>
       <c r="F66" s="4">
@@ -13842,7 +13844,7 @@
       <c r="D67" s="10">
         <v>5.67</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="F67" s="4">
@@ -13917,13 +13919,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -13932,7 +13934,7 @@
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13949,7 +13951,7 @@
       <c r="D75" s="10">
         <v>5.82</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="18">
         <v>0.9</v>
       </c>
       <c r="F75" s="4">
@@ -13969,7 +13971,7 @@
       <c r="D76" s="10">
         <v>5.75</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="18">
         <v>0.6</v>
       </c>
       <c r="F76" s="4">
@@ -13989,7 +13991,7 @@
       <c r="D77" s="10">
         <v>5.73</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="18">
         <v>0.6</v>
       </c>
       <c r="F77" s="4">
@@ -14109,7 +14111,7 @@
       <c r="D83" s="10">
         <v>5.38</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="18">
         <v>2.1</v>
       </c>
       <c r="F83" s="4">
@@ -14166,7 +14168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE631C3-EF31-4935-8D2C-303DE0FA2CF9}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -14187,7 +14189,7 @@
       </c>
       <c r="C1" s="13">
         <f>Samenvatting!C1</f>
-        <v>45094</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
@@ -14197,10 +14199,10 @@
       <c r="B4" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -14549,23 +14551,23 @@
       </c>
       <c r="C17" t="str">
         <f>HSS!B5</f>
-        <v>Navaro doulany Aboikonie</v>
+        <v>Olivier Welre</v>
       </c>
       <c r="D17" t="str">
         <f>HSS!C5</f>
-        <v>Leiden Atletiek</v>
+        <v>New Zealand</v>
       </c>
       <c r="E17" s="10">
         <f>HSS!D5</f>
-        <v>15.54</v>
+        <v>16.02</v>
       </c>
       <c r="F17" s="10">
         <f>HSS!E5</f>
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G17" s="13">
         <f>HSS!F5</f>
-        <v>44750</v>
+        <v>45114</v>
       </c>
       <c r="H17" t="s">
         <v>559</v>
@@ -14580,23 +14582,23 @@
       </c>
       <c r="C18" t="str">
         <f>HSS!B19</f>
-        <v>Navaro Aboikonie</v>
+        <v>Ethan Welre</v>
       </c>
       <c r="D18" t="str">
         <f>HSS!C19</f>
-        <v>Haag Atletiek</v>
+        <v>New Zealand</v>
       </c>
       <c r="E18" s="10">
         <f>HSS!D19</f>
-        <v>15.11</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="F18" s="10">
         <f>HSS!E19</f>
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="G18" s="13">
         <f>HSS!F19</f>
-        <v>43686</v>
+        <v>45114</v>
       </c>
       <c r="H18" t="s">
         <v>559</v>
@@ -15194,19 +15196,19 @@
       </c>
       <c r="C40" t="str">
         <f>Polshoog!B84</f>
-        <v>Liesbet van Roie</v>
+        <v>Marijn Kieft</v>
       </c>
       <c r="D40" t="str">
         <f>Polshoog!C84</f>
-        <v>AVZ</v>
+        <v>AAV'36</v>
       </c>
       <c r="E40" s="10">
         <f>Polshoog!D84</f>
-        <v>3.5</v>
+        <v>3.96</v>
       </c>
       <c r="G40" s="13">
         <f>Polshoog!F84</f>
-        <v>35979</v>
+        <v>45114</v>
       </c>
       <c r="H40" t="s">
         <v>559</v>

--- a/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
+++ b/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b50eeb736046b11/Bureaublad/EvE/Atletiek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3847" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEC19E9B-8C68-45C8-AD93-150DE6BB19AA}"/>
+  <xr:revisionPtr revIDLastSave="3895" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7F485C-BB6A-427B-961F-D65C43760876}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="2" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Discus" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Samenvatting" sheetId="18" state="hidden" r:id="rId10"/>
     <sheet name="layout" sheetId="2" state="hidden" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Meeting Records'!$A$1:$H$52</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -216,6 +219,12 @@
     <t>Monique Jansen</t>
   </si>
   <si>
+    <t>Corrine Nugter</t>
+  </si>
+  <si>
+    <t>AV NOP</t>
+  </si>
+  <si>
     <t>Inge Barends</t>
   </si>
   <si>
@@ -252,12 +261,6 @@
     <t>Spartaan</t>
   </si>
   <si>
-    <t>Tiny Hellendoorn</t>
-  </si>
-  <si>
-    <t>Isala</t>
-  </si>
-  <si>
     <t>Meisjes A / U20</t>
   </si>
   <si>
@@ -321,9 +324,6 @@
     <t>Hera</t>
   </si>
   <si>
-    <t>Corrine Nugter</t>
-  </si>
-  <si>
     <t>NOP</t>
   </si>
   <si>
@@ -504,9 +504,6 @@
     <t>Manon Schoop</t>
   </si>
   <si>
-    <t>AV NOP</t>
-  </si>
-  <si>
     <t>Tanita Hofmans</t>
   </si>
   <si>
@@ -1731,7 +1728,13 @@
     <t>U20M</t>
   </si>
   <si>
+    <t>MRU20</t>
+  </si>
+  <si>
     <t>U18M</t>
+  </si>
+  <si>
+    <t>MRU18</t>
   </si>
   <si>
     <t>SENV</t>
@@ -2225,7 +2228,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2234,7 +2237,7 @@
     <col min="2" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2244,7 +2247,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2892,13 +2895,13 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D48" s="10">
-        <v>47.94</v>
+        <v>52.3</v>
       </c>
       <c r="F48" s="4">
-        <v>35930</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2906,16 +2909,16 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" s="10">
-        <v>47.1</v>
+        <v>47.94</v>
       </c>
       <c r="F49" s="4">
-        <v>42545</v>
+        <v>35930</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2923,16 +2926,16 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D50" s="10">
-        <v>43.54</v>
+        <v>47.1</v>
       </c>
       <c r="F50" s="4">
-        <v>37820</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2946,10 +2949,10 @@
         <v>61</v>
       </c>
       <c r="D51" s="10">
-        <v>43.53</v>
+        <v>43.54</v>
       </c>
       <c r="F51" s="4">
-        <v>39955</v>
+        <v>37820</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2960,13 +2963,13 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D52" s="10">
-        <v>42.67</v>
+        <v>43.53</v>
       </c>
       <c r="F52" s="4">
-        <v>44722</v>
+        <v>39955</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2974,16 +2977,16 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D53" s="10">
-        <v>41.99</v>
+        <v>42.67</v>
       </c>
       <c r="F53" s="4">
-        <v>41131</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2994,13 +2997,13 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D54" s="10">
-        <v>40.44</v>
+        <v>41.99</v>
       </c>
       <c r="F54" s="4">
-        <v>43294</v>
+        <v>41131</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3008,17 +3011,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D55" s="10">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>40.44</v>
+      </c>
       <c r="F55" s="4">
-        <v>39668</v>
+        <v>43294</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3032,10 +3034,11 @@
         <v>69</v>
       </c>
       <c r="D56" s="10">
-        <v>39.75</v>
-      </c>
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="4">
-        <v>36378</v>
+        <v>39668</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3188,7 +3191,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
@@ -3316,10 +3319,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
         <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>92</v>
       </c>
       <c r="D78" s="10">
         <v>38.659999999999997</v>
@@ -3333,7 +3336,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -3350,7 +3353,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -3367,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
@@ -3384,10 +3387,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
         <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>96</v>
       </c>
       <c r="D82" s="10">
         <v>38.33</v>
@@ -3401,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -3419,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -3452,10 +3455,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C1" s="21">
-        <v>45116</v>
+        <v>45142</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -3899,7 +3902,7 @@
       </c>
       <c r="I15" s="10">
         <f>Discus!D$56</f>
-        <v>39.75</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="J15">
         <f>Discus!D$61</f>
@@ -4019,7 +4022,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4898,7 +4901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6957942-D991-4424-BBD7-6AB28243DB19}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -4918,7 +4921,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4951,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -4968,10 +4971,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="10">
         <v>2.0499999999999998</v>
@@ -4985,10 +4988,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="10">
         <v>2.02</v>
@@ -5002,10 +5005,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
         <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
       </c>
       <c r="D8" s="10">
         <v>2</v>
@@ -5019,10 +5022,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
         <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
       </c>
       <c r="D9" s="10">
         <v>1.98</v>
@@ -5036,10 +5039,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
       </c>
       <c r="D10" s="10">
         <v>1.97</v>
@@ -5053,10 +5056,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
       </c>
       <c r="D11" s="10">
         <v>1.97</v>
@@ -5070,10 +5073,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
         <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
       </c>
       <c r="D12" s="10">
         <v>1.97</v>
@@ -5087,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -5104,7 +5107,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -5146,10 +5149,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
         <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
       </c>
       <c r="D19" s="10">
         <v>1.95</v>
@@ -5163,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -5180,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -5197,10 +5200,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="10">
         <v>1.9</v>
@@ -5214,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
         <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
       </c>
       <c r="D23" s="10">
         <v>1.9</v>
@@ -5231,10 +5234,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
       </c>
       <c r="D24" s="10">
         <v>1.9</v>
@@ -5248,10 +5251,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
         <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
       </c>
       <c r="D25" s="10">
         <v>1.89</v>
@@ -5265,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
         <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
       </c>
       <c r="D26" s="10">
         <v>1.85</v>
@@ -5282,10 +5285,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="10">
         <v>1.85</v>
@@ -5299,7 +5302,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -5316,7 +5319,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -5333,10 +5336,10 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>132</v>
       </c>
       <c r="D30" s="10">
         <v>1.85</v>
@@ -5350,7 +5353,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -5367,10 +5370,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="10">
         <v>1.85</v>
@@ -5409,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -5426,10 +5429,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
         <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>137</v>
       </c>
       <c r="D37" s="10">
         <v>1.95</v>
@@ -5443,10 +5446,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
         <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>139</v>
       </c>
       <c r="D38" s="10">
         <v>1.94</v>
@@ -5460,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
         <v>140</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
       </c>
       <c r="D39" s="10">
         <v>1.94</v>
@@ -5477,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
@@ -5494,10 +5497,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
       </c>
       <c r="D41" s="10">
         <v>1.92</v>
@@ -5511,10 +5514,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
         <v>143</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
       </c>
       <c r="D42" s="10">
         <v>1.9</v>
@@ -5528,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
@@ -5545,10 +5548,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
         <v>146</v>
-      </c>
-      <c r="C44" t="s">
-        <v>147</v>
       </c>
       <c r="D44" s="10">
         <v>1.9</v>
@@ -5562,10 +5565,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="10">
         <v>1.9</v>
@@ -5579,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -5621,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -5638,10 +5641,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D51" s="10">
         <v>1.76</v>
@@ -5655,10 +5658,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="10">
         <v>1.74</v>
@@ -5672,7 +5675,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -5689,7 +5692,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
         <v>72</v>
@@ -5706,7 +5709,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -5723,10 +5726,10 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D56" s="12">
         <v>1.7</v>
@@ -5740,7 +5743,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -5757,7 +5760,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
@@ -5774,10 +5777,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="10">
         <v>1.66</v>
@@ -5816,10 +5819,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D64" s="10">
         <v>1.71</v>
@@ -5834,10 +5837,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D65" s="10">
         <v>1.7</v>
@@ -5851,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -5868,10 +5871,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D67" s="10">
         <v>1.7</v>
@@ -5886,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -5903,10 +5906,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D69" s="10">
         <v>1.65</v>
@@ -5920,10 +5923,10 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D70" s="10">
         <v>1.64</v>
@@ -5937,7 +5940,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
         <v>45</v>
@@ -5954,10 +5957,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D72" s="10">
         <v>1.6</v>
@@ -5971,10 +5974,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D73" s="10">
         <v>1.6</v>
@@ -5988,10 +5991,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D74" s="10">
         <v>1.6</v>
@@ -6030,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D78" s="10">
         <v>1.75</v>
@@ -6047,7 +6050,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -6064,10 +6067,10 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D80" s="10">
         <v>1.65</v>
@@ -6081,10 +6084,10 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D81" s="10">
         <v>1.65</v>
@@ -6098,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
         <v>46</v>
@@ -6115,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -6132,10 +6135,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D84" s="10">
         <v>1.61</v>
@@ -6149,7 +6152,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -6166,7 +6169,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
         <v>53</v>
@@ -6183,10 +6186,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D87" s="10">
         <v>1.6</v>
@@ -6200,7 +6203,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
         <v>42</v>
@@ -6217,10 +6220,10 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D89" s="10">
         <v>1.6</v>
@@ -6234,10 +6237,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D90" s="10">
         <v>1.6</v>
@@ -6251,10 +6254,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D91" s="10">
         <v>1.6</v>
@@ -6272,7 +6275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1D5E1-3BCE-400F-AF67-CFC9DF249C88}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -6293,7 +6296,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6326,10 +6329,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="10">
         <v>16.02</v>
@@ -6346,7 +6349,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -6366,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -6386,10 +6389,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" s="10">
         <v>14.79</v>
@@ -6406,10 +6409,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" s="10">
         <v>14.53</v>
@@ -6426,10 +6429,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="10">
         <v>14.48</v>
@@ -6446,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -6466,7 +6469,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -6486,10 +6489,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D13" s="10">
         <v>14.26</v>
@@ -6506,10 +6509,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="10">
         <v>14.02</v>
@@ -6551,10 +6554,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="10">
         <v>16.170000000000002</v>
@@ -6571,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -6591,10 +6594,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="10">
         <v>13.71</v>
@@ -6611,10 +6614,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D22" s="10">
         <v>13.71</v>
@@ -6631,10 +6634,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="10">
         <v>13.64</v>
@@ -6651,10 +6654,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" s="10">
         <v>13.59</v>
@@ -6671,10 +6674,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="10">
         <v>13.27</v>
@@ -6691,7 +6694,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -6711,10 +6714,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D27" s="10">
         <v>13.1</v>
@@ -6731,10 +6734,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="10">
         <v>13.1</v>
@@ -6794,10 +6797,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="D34" s="10">
         <v>13.21</v>
@@ -6814,10 +6817,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D35" s="10">
         <v>13.02</v>
@@ -6832,10 +6835,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D36" s="10">
         <v>12.96</v>
@@ -6852,7 +6855,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -6870,7 +6873,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -6890,7 +6893,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
@@ -6908,10 +6911,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" s="10">
         <v>12.74</v>
@@ -6928,7 +6931,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -6946,7 +6949,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -6991,10 +6994,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D47" s="10">
         <v>12.66</v>
@@ -7011,7 +7014,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -7031,10 +7034,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" s="10">
         <v>12.45</v>
@@ -7051,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -7071,10 +7074,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D51" s="10">
         <v>12.28</v>
@@ -7091,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -7111,7 +7114,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -7128,7 +7131,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -7148,7 +7151,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -7168,7 +7171,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -7218,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -7238,10 +7241,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D62" s="10">
         <v>11.19</v>
@@ -7258,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="10">
         <v>11.06</v>
@@ -7278,10 +7281,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64" s="10">
         <v>10.97</v>
@@ -7296,7 +7299,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -7314,10 +7317,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D66" s="10">
         <v>10.81</v>
@@ -7334,7 +7337,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -7354,7 +7357,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
@@ -7372,7 +7375,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -7390,7 +7393,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -7438,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C75" t="s">
         <v>74</v>
@@ -7458,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -7478,10 +7481,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D77" s="10">
         <v>11.26</v>
@@ -7498,10 +7501,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D78" s="10">
         <v>11.12</v>
@@ -7518,10 +7521,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D79" s="10">
         <v>11.01</v>
@@ -7538,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -7556,7 +7559,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C81" t="s">
         <v>42</v>
@@ -7576,7 +7579,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C82" t="s">
         <v>49</v>
@@ -7596,10 +7599,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D83" s="10">
         <v>10.75</v>
@@ -7616,7 +7619,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -7661,7 +7664,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7695,10 +7698,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="10">
         <v>67.650000000000006</v>
@@ -7712,10 +7715,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" s="10">
         <v>66.63</v>
@@ -7729,10 +7732,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="10">
         <v>64.13</v>
@@ -7746,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -7763,10 +7766,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="10">
         <v>59.35</v>
@@ -7780,7 +7783,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -7797,10 +7800,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D11" s="10">
         <v>57.1</v>
@@ -7814,7 +7817,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -7831,7 +7834,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -7843,7 +7846,7 @@
         <v>38135</v>
       </c>
       <c r="G13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7851,7 +7854,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -7911,10 +7914,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D20" s="10">
         <v>63.48</v>
@@ -7928,7 +7931,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -7948,7 +7951,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D22" s="10">
         <v>56.32</v>
@@ -7962,7 +7965,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -7979,7 +7982,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -7996,7 +7999,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -8013,10 +8016,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" s="10">
         <v>52.43</v>
@@ -8047,7 +8050,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -8107,10 +8110,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D34" s="10">
         <v>62.38</v>
@@ -8127,7 +8130,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D35" s="10">
         <v>58.81</v>
@@ -8141,10 +8144,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D36" s="10">
         <v>57.56</v>
@@ -8158,7 +8161,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -8175,10 +8178,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="10">
         <v>55.13</v>
@@ -8192,10 +8195,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D39" s="10">
         <v>53.59</v>
@@ -8209,10 +8212,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="10">
         <v>49.57</v>
@@ -8226,10 +8229,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D41" s="10">
         <v>47.82</v>
@@ -8244,10 +8247,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D42" s="10">
         <v>46.73</v>
@@ -8286,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -8303,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D48" s="10">
         <v>58.44</v>
@@ -8320,7 +8323,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -8337,10 +8340,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="10">
         <v>55.23</v>
@@ -8354,7 +8357,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
@@ -8371,7 +8374,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -8388,7 +8391,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -8406,7 +8409,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -8423,7 +8426,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -8440,7 +8443,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -8482,10 +8485,10 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D61" s="10">
         <v>52.52</v>
@@ -8500,10 +8503,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D62" s="10">
         <v>49.56</v>
@@ -8517,7 +8520,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -8534,7 +8537,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
@@ -8551,7 +8554,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -8568,10 +8571,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D66" s="10">
         <v>46.68</v>
@@ -8585,10 +8588,10 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D67" s="10">
         <v>42.78</v>
@@ -8602,7 +8605,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -8619,10 +8622,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D69" s="10">
         <v>40.4</v>
@@ -8636,7 +8639,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -8678,10 +8681,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D75" s="10">
         <v>65.56</v>
@@ -8695,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D76" s="10">
         <v>51.3</v>
@@ -8712,7 +8715,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
         <v>49</v>
@@ -8729,10 +8732,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D78" s="10">
         <v>49.52</v>
@@ -8746,10 +8749,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D79" s="10">
         <v>48.67</v>
@@ -8763,10 +8766,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D80" s="10">
         <v>47.76</v>
@@ -8780,7 +8783,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -8797,10 +8800,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D82" s="10">
         <v>44.9</v>
@@ -8814,7 +8817,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -8831,7 +8834,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -8854,7 +8857,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8873,7 +8876,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8906,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -8924,7 +8927,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -8941,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -8958,10 +8961,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="10">
         <v>17</v>
@@ -8976,7 +8979,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -8993,7 +8996,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -9011,7 +9014,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -9029,7 +9032,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -9047,7 +9050,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -9065,10 +9068,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D14" s="10">
         <v>16.21</v>
@@ -9108,10 +9111,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="10">
         <v>16.940000000000001</v>
@@ -9162,7 +9165,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -9198,7 +9201,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -9216,10 +9219,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D25" s="10">
         <v>15.43</v>
@@ -9234,10 +9237,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D26" s="10">
         <v>15.38</v>
@@ -9252,10 +9255,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D27" s="10">
         <v>15.1</v>
@@ -9270,7 +9273,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -9315,10 +9318,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="10">
         <v>18.55</v>
@@ -9351,7 +9354,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -9369,10 +9372,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D36" s="10">
         <v>16.920000000000002</v>
@@ -9405,7 +9408,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
@@ -9423,10 +9426,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D39" s="10">
         <v>15.83</v>
@@ -9441,10 +9444,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D40" s="10">
         <v>15.72</v>
@@ -9477,7 +9480,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -9520,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
@@ -9538,10 +9541,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="10">
         <v>17.05</v>
@@ -9572,7 +9575,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -9590,7 +9593,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
         <v>78</v>
@@ -9608,7 +9611,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
@@ -9625,10 +9628,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D53" s="10">
         <v>14</v>
@@ -9661,10 +9664,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D55" s="10">
         <v>13.62</v>
@@ -9679,7 +9682,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -9722,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -9758,7 +9761,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -9794,7 +9797,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C65" t="s">
         <v>31</v>
@@ -9812,7 +9815,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -9833,7 +9836,7 @@
         <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D67" s="10">
         <v>12.81</v>
@@ -9866,10 +9869,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D69" s="10">
         <v>12.44</v>
@@ -9884,7 +9887,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -9926,10 +9929,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D75" s="10">
         <v>16.21</v>
@@ -9944,10 +9947,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" s="10">
         <v>15.92</v>
@@ -9962,7 +9965,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -9979,10 +9982,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D78" s="10">
         <v>14.73</v>
@@ -9997,10 +10000,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D79" s="10">
         <v>14.63</v>
@@ -10015,10 +10018,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="10">
         <v>14.6</v>
@@ -10051,7 +10054,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
         <v>74</v>
@@ -10069,10 +10072,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="10">
         <v>14.42</v>
@@ -10087,7 +10090,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C84" t="s">
         <v>31</v>
@@ -10128,7 +10131,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10161,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -10178,10 +10181,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" s="10">
         <v>5.05</v>
@@ -10195,10 +10198,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="10">
         <v>5</v>
@@ -10212,7 +10215,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -10229,10 +10232,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D9" s="10">
         <v>5</v>
@@ -10246,10 +10249,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D10" s="10">
         <v>5</v>
@@ -10263,10 +10266,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" s="10">
         <v>5</v>
@@ -10280,10 +10283,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D12" s="10">
         <v>4.9000000000000004</v>
@@ -10297,10 +10300,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D13" s="10">
         <v>4.84</v>
@@ -10315,10 +10318,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="10">
         <v>4.8</v>
@@ -10332,7 +10335,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -10349,10 +10352,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" s="10">
         <v>4.8</v>
@@ -10391,10 +10394,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D20" s="10">
         <v>4.8</v>
@@ -10408,10 +10411,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D21" s="10">
         <v>4.7</v>
@@ -10425,10 +10428,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D22" s="10">
         <v>4.5999999999999996</v>
@@ -10442,10 +10445,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D23" s="10">
         <v>4.4000000000000004</v>
@@ -10459,10 +10462,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D24" s="10">
         <v>4.4000000000000004</v>
@@ -10476,10 +10479,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D25" s="10">
         <v>4.4000000000000004</v>
@@ -10493,10 +10496,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D26" s="10">
         <v>4.28</v>
@@ -10510,10 +10513,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D27" s="10">
         <v>4.24</v>
@@ -10527,7 +10530,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -10544,10 +10547,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D29" s="10">
         <v>4</v>
@@ -10561,10 +10564,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D30" s="10">
         <v>4</v>
@@ -10578,10 +10581,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D31" s="10">
         <v>4</v>
@@ -10595,10 +10598,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D32" s="10">
         <v>4</v>
@@ -10612,7 +10615,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -10629,7 +10632,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -10646,7 +10649,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
@@ -10688,10 +10691,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="10">
         <v>4.42</v>
@@ -10705,10 +10708,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D40" s="10">
         <v>4.4000000000000004</v>
@@ -10722,10 +10725,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C41" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D41" s="10">
         <v>4.0999999999999996</v>
@@ -10739,10 +10742,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C42" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D42" s="10">
         <v>4.0999999999999996</v>
@@ -10756,10 +10759,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D43" s="10">
         <v>4.0999999999999996</v>
@@ -10773,7 +10776,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -10790,10 +10793,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D45" s="10">
         <v>4.0199999999999996</v>
@@ -10807,10 +10810,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D46" s="10">
         <v>4.01</v>
@@ -10824,10 +10827,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -10841,10 +10844,10 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D48" s="10">
         <v>4</v>
@@ -10858,10 +10861,10 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -10875,7 +10878,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -10892,10 +10895,10 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -10909,10 +10912,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D52" s="10">
         <v>4</v>
@@ -10951,10 +10954,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D56" s="10">
         <v>4.13</v>
@@ -10968,10 +10971,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D57" s="10">
         <v>4.0999999999999996</v>
@@ -10985,7 +10988,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C58" t="s">
         <v>23</v>
@@ -11002,10 +11005,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D59" s="10">
         <v>3.8</v>
@@ -11019,7 +11022,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -11036,7 +11039,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -11053,10 +11056,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D62" s="10">
         <v>3.7</v>
@@ -11070,10 +11073,10 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C63" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D63" s="10">
         <v>3.7</v>
@@ -11087,7 +11090,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -11104,7 +11107,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -11146,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -11164,10 +11167,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D71" s="10">
         <v>3.53</v>
@@ -11181,7 +11184,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C72" t="s">
         <v>37</v>
@@ -11198,10 +11201,10 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D73" s="10">
         <v>3.24</v>
@@ -11215,10 +11218,10 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D74" s="10">
         <v>3.2</v>
@@ -11232,10 +11235,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D75" s="10">
         <v>3.1</v>
@@ -11249,7 +11252,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
@@ -11266,7 +11269,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
@@ -11283,7 +11286,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C78" t="s">
         <v>33</v>
@@ -11300,7 +11303,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -11317,10 +11320,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D80" s="12">
         <v>2.9</v>
@@ -11359,10 +11362,10 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C84" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D84" s="10">
         <v>3.96</v>
@@ -11376,10 +11379,10 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D85" s="10">
         <v>3.5</v>
@@ -11393,10 +11396,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D86" s="10">
         <v>3.43</v>
@@ -11410,10 +11413,10 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D87" s="10">
         <v>3.4</v>
@@ -11427,7 +11430,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -11444,7 +11447,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -11461,10 +11464,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C90" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D90" s="10">
         <v>3.2</v>
@@ -11478,10 +11481,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C91" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D91" s="10">
         <v>3.2</v>
@@ -11495,7 +11498,7 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -11512,7 +11515,7 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -11553,7 +11556,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11586,10 +11589,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D5" s="10">
         <v>71.86</v>
@@ -11603,7 +11606,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -11620,10 +11623,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7" s="10">
         <v>70.069999999999993</v>
@@ -11637,7 +11640,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -11654,10 +11657,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="10">
         <v>68.67</v>
@@ -11671,10 +11674,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D10" s="10">
         <v>67.78</v>
@@ -11688,7 +11691,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -11705,10 +11708,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D12" s="10">
         <v>65.42</v>
@@ -11722,7 +11725,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -11739,7 +11742,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -11781,10 +11784,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D19" s="10">
         <v>66.42</v>
@@ -11798,10 +11801,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="10">
         <v>63.77</v>
@@ -11815,10 +11818,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="10">
         <v>62.38</v>
@@ -11832,10 +11835,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D22" s="10">
         <v>58.92</v>
@@ -11849,10 +11852,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D23" s="10">
         <v>58.72</v>
@@ -11866,10 +11869,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D24" s="10">
         <v>58.55</v>
@@ -11883,10 +11886,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D25" s="10">
         <v>58.15</v>
@@ -11900,7 +11903,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -11917,7 +11920,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -11934,7 +11937,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -11976,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
@@ -11993,10 +11996,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D34" s="10">
         <v>63.02</v>
@@ -12010,10 +12013,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="10">
         <v>62.42</v>
@@ -12027,10 +12030,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D36" s="10">
         <v>60.54</v>
@@ -12044,7 +12047,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
@@ -12061,10 +12064,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D38" s="10">
         <v>57.27</v>
@@ -12078,10 +12081,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D39" s="10">
         <v>54.15</v>
@@ -12095,7 +12098,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
@@ -12112,10 +12115,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D41" s="10">
         <v>53.98</v>
@@ -12129,7 +12132,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -12171,10 +12174,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C47" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D47" s="10">
         <v>57.84</v>
@@ -12188,7 +12191,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -12205,10 +12208,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D49" s="10">
         <v>51.89</v>
@@ -12222,10 +12225,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D50" s="10">
         <v>47.99</v>
@@ -12239,7 +12242,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
@@ -12256,7 +12259,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
@@ -12273,10 +12276,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C53" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D53" s="10">
         <v>46.94</v>
@@ -12290,10 +12293,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C54" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D54" s="10">
         <v>45.47</v>
@@ -12307,10 +12310,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D55" s="10">
         <v>45.05</v>
@@ -12324,10 +12327,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D56" s="10">
         <v>44.19</v>
@@ -12366,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C61" t="s">
         <v>45</v>
@@ -12384,10 +12387,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C62" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D62" s="10">
         <v>50.05</v>
@@ -12401,7 +12404,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -12418,10 +12421,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D64" s="10">
         <v>44.23</v>
@@ -12435,7 +12438,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -12452,10 +12455,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D66" s="10">
         <v>40.78</v>
@@ -12469,7 +12472,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -12486,10 +12489,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D68" s="10">
         <v>39.47</v>
@@ -12503,10 +12506,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D69" s="10">
         <v>39.369999999999997</v>
@@ -12520,10 +12523,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D70" s="10">
         <v>38.659999999999997</v>
@@ -12562,10 +12565,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D75" s="10">
         <v>47.17</v>
@@ -12579,7 +12582,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C76" t="s">
         <v>45</v>
@@ -12596,10 +12599,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D77" s="10">
         <v>45.48</v>
@@ -12613,10 +12616,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D78" s="10">
         <v>42.42</v>
@@ -12630,10 +12633,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D79" s="10">
         <v>41.12</v>
@@ -12647,10 +12650,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D80" s="10">
         <v>39.97</v>
@@ -12664,10 +12667,10 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D81" s="10">
         <v>39.76</v>
@@ -12681,10 +12684,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D82" s="10">
         <v>39.57</v>
@@ -12698,10 +12701,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" s="10">
         <v>38.950000000000003</v>
@@ -12715,10 +12718,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D84" s="10">
         <v>38.880000000000003</v>
@@ -12736,7 +12739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3AB92-3F00-409D-A557-1F922B760427}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -12757,7 +12760,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12790,10 +12793,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D5" s="10">
         <v>7.36</v>
@@ -12810,7 +12813,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -12830,10 +12833,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D7" s="10">
         <v>7.29</v>
@@ -12850,7 +12853,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -12870,7 +12873,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -12888,10 +12891,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D10" s="10">
         <v>7.1</v>
@@ -12908,7 +12911,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -12926,10 +12929,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D12" s="10">
         <v>7.05</v>
@@ -12946,10 +12949,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D13" s="10">
         <v>7.03</v>
@@ -12964,10 +12967,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="10">
         <v>7.02</v>
@@ -13009,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -13029,10 +13032,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="10">
         <v>7.1</v>
@@ -13047,7 +13050,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -13067,7 +13070,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -13087,7 +13090,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -13107,10 +13110,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" s="10">
         <v>6.86</v>
@@ -13125,7 +13128,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -13143,7 +13146,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -13163,10 +13166,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="10">
         <v>6.67</v>
@@ -13183,7 +13186,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -13228,10 +13231,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="10">
         <v>6.85</v>
@@ -13248,7 +13251,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -13268,7 +13271,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -13288,7 +13291,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -13308,7 +13311,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C37" t="s">
         <v>53</v>
@@ -13328,10 +13331,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D38" s="10">
         <v>6.52</v>
@@ -13348,7 +13351,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -13368,7 +13371,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -13388,7 +13391,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -13408,10 +13411,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D42" s="10">
         <v>6.46</v>
@@ -13453,10 +13456,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D47" s="10">
         <v>6.39</v>
@@ -13473,10 +13476,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D48" s="10">
         <v>6.2</v>
@@ -13493,10 +13496,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D49" s="10">
         <v>5.88</v>
@@ -13511,10 +13514,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D50" s="10">
         <v>5.84</v>
@@ -13531,7 +13534,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
@@ -13551,10 +13554,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C52" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D52" s="10">
         <v>5.81</v>
@@ -13571,10 +13574,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D53" s="10">
         <v>5.79</v>
@@ -13591,10 +13594,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C54" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D54" s="10">
         <v>5.74</v>
@@ -13611,10 +13614,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D55" s="10">
         <v>5.73</v>
@@ -13631,10 +13634,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" s="10">
         <v>5.66</v>
@@ -13651,7 +13654,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -13671,10 +13674,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D58" s="10">
         <v>5.66</v>
@@ -13716,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -13736,10 +13739,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D62" s="10">
         <v>5.73</v>
@@ -13756,10 +13759,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D63" s="10">
         <v>5.72</v>
@@ -13776,10 +13779,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D64" s="10">
         <v>5.69</v>
@@ -13796,10 +13799,10 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D65" s="10">
         <v>5.68</v>
@@ -13816,10 +13819,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D66" s="10">
         <v>5.68</v>
@@ -13836,7 +13839,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
@@ -13856,7 +13859,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -13874,10 +13877,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D69" s="10">
         <v>5.59</v>
@@ -13894,7 +13897,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -13943,10 +13946,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D75" s="10">
         <v>5.82</v>
@@ -13963,10 +13966,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D76" s="10">
         <v>5.75</v>
@@ -13983,7 +13986,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C77" t="s">
         <v>45</v>
@@ -14003,10 +14006,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" s="10">
         <v>5.68</v>
@@ -14023,10 +14026,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D79" s="10">
         <v>5.57</v>
@@ -14043,10 +14046,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D80" s="10">
         <v>5.52</v>
@@ -14063,7 +14066,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C81" t="s">
         <v>31</v>
@@ -14083,10 +14086,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="10">
         <v>5.43</v>
@@ -14103,10 +14106,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" s="10">
         <v>5.38</v>
@@ -14123,10 +14126,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D84" s="10">
         <v>5.36</v>
@@ -14143,10 +14146,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C85" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D85" s="10">
         <v>5.36</v>
@@ -14168,8 +14171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE631C3-EF31-4935-8D2C-303DE0FA2CF9}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -14185,19 +14188,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C1" s="13">
         <f>Samenvatting!C1</f>
-        <v>45116</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>2</v>
@@ -14215,15 +14218,15 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C5" t="str">
         <f>Discus!B5</f>
@@ -14242,15 +14245,15 @@
         <v>38926</v>
       </c>
       <c r="H5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C6" t="str">
         <f>Discus!B19</f>
@@ -14274,10 +14277,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C7" t="str">
         <f>Discus!B33</f>
@@ -14296,12 +14299,12 @@
         <v>44022</v>
       </c>
       <c r="H7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
         <v>562</v>
@@ -14323,12 +14326,12 @@
         <v>39598</v>
       </c>
       <c r="H8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
         <v>563</v>
@@ -14355,7 +14358,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B10" t="s">
         <v>564</v>
@@ -14377,7 +14380,7 @@
         <v>44778</v>
       </c>
       <c r="H10" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14385,7 +14388,7 @@
         <v>565</v>
       </c>
       <c r="B11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C11" t="str">
         <f>Hoog!B5</f>
@@ -14404,7 +14407,7 @@
         <v>37135</v>
       </c>
       <c r="H11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14412,7 +14415,7 @@
         <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C12" t="str">
         <f>Hoog!B19</f>
@@ -14439,7 +14442,7 @@
         <v>565</v>
       </c>
       <c r="B13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C13" t="str">
         <f>Hoog!B36</f>
@@ -14458,7 +14461,7 @@
         <v>39626</v>
       </c>
       <c r="H13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14485,7 +14488,7 @@
         <v>43686</v>
       </c>
       <c r="H14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14539,7 +14542,7 @@
         <v>44022</v>
       </c>
       <c r="H16" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14547,7 +14550,7 @@
         <v>566</v>
       </c>
       <c r="B17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C17" t="str">
         <f>HSS!B5</f>
@@ -14570,7 +14573,7 @@
         <v>45114</v>
       </c>
       <c r="H17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14578,7 +14581,7 @@
         <v>566</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C18" t="str">
         <f>HSS!B19</f>
@@ -14609,7 +14612,7 @@
         <v>566</v>
       </c>
       <c r="B19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C19" t="str">
         <f>HSS!B33</f>
@@ -14632,7 +14635,7 @@
         <v>38576</v>
       </c>
       <c r="H19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14663,7 +14666,7 @@
         <v>42195</v>
       </c>
       <c r="H20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14725,7 +14728,7 @@
         <v>43294</v>
       </c>
       <c r="H22" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14733,7 +14736,7 @@
         <v>567</v>
       </c>
       <c r="B23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C23" t="str">
         <f>Kogelslingeren!B5</f>
@@ -14752,7 +14755,7 @@
         <v>37864</v>
       </c>
       <c r="H23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14760,7 +14763,7 @@
         <v>567</v>
       </c>
       <c r="B24" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C24" t="str">
         <f>Kogelslingeren!B19</f>
@@ -14787,7 +14790,7 @@
         <v>567</v>
       </c>
       <c r="B25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C25" t="str">
         <f>Kogelslingeren!B33</f>
@@ -14806,7 +14809,7 @@
         <v>41152</v>
       </c>
       <c r="H25" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14833,7 +14836,7 @@
         <v>44332</v>
       </c>
       <c r="H26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14887,7 +14890,7 @@
         <v>44332</v>
       </c>
       <c r="H28" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14895,7 +14898,7 @@
         <v>568</v>
       </c>
       <c r="B29" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C29" t="str">
         <f>Kogelstoten!B5</f>
@@ -14914,7 +14917,7 @@
         <v>41131</v>
       </c>
       <c r="H29" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14922,7 +14925,7 @@
         <v>568</v>
       </c>
       <c r="B30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C30" t="str">
         <f>Kogelstoten!B19</f>
@@ -14949,7 +14952,7 @@
         <v>568</v>
       </c>
       <c r="B31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C31" t="str">
         <f>Kogelstoten!B33</f>
@@ -14968,7 +14971,7 @@
         <v>44673</v>
       </c>
       <c r="H31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14995,7 +14998,7 @@
         <v>44050</v>
       </c>
       <c r="H32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15049,7 +15052,7 @@
         <v>37820</v>
       </c>
       <c r="H34" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15057,7 +15060,7 @@
         <v>569</v>
       </c>
       <c r="B35" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C35" t="str">
         <f>Polshoog!B5</f>
@@ -15076,7 +15079,7 @@
         <v>41103</v>
       </c>
       <c r="H35" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15084,7 +15087,7 @@
         <v>569</v>
       </c>
       <c r="B36" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C36" t="str">
         <f>Polshoog!B20</f>
@@ -15111,7 +15114,7 @@
         <v>569</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C37" t="str">
         <f>Polshoog!B39</f>
@@ -15130,7 +15133,7 @@
         <v>44329</v>
       </c>
       <c r="H37" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15157,7 +15160,7 @@
         <v>45079</v>
       </c>
       <c r="H38" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15211,7 +15214,7 @@
         <v>45114</v>
       </c>
       <c r="H40" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15219,7 +15222,7 @@
         <v>570</v>
       </c>
       <c r="B41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C41" t="str">
         <f>Speer!B5</f>
@@ -15238,7 +15241,7 @@
         <v>44332</v>
       </c>
       <c r="H41" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15246,7 +15249,7 @@
         <v>570</v>
       </c>
       <c r="B42" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C42" t="str">
         <f>Speer!B19</f>
@@ -15273,7 +15276,7 @@
         <v>570</v>
       </c>
       <c r="B43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C43" t="str">
         <f>Speer!B33</f>
@@ -15292,7 +15295,7 @@
         <v>44332</v>
       </c>
       <c r="H43" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15319,7 +15322,7 @@
         <v>38156</v>
       </c>
       <c r="H44" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15373,7 +15376,7 @@
         <v>42153</v>
       </c>
       <c r="H46" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15381,7 +15384,7 @@
         <v>571</v>
       </c>
       <c r="B47" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C47" t="str">
         <f>Verspringen!B5</f>
@@ -15404,7 +15407,7 @@
         <v>44750</v>
       </c>
       <c r="H47" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15412,7 +15415,7 @@
         <v>571</v>
       </c>
       <c r="B48" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C48" t="str">
         <f>Verspringen!B19</f>
@@ -15443,7 +15446,7 @@
         <v>571</v>
       </c>
       <c r="B49" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C49" t="str">
         <f>Verspringen!B33</f>
@@ -15466,7 +15469,7 @@
         <v>44050</v>
       </c>
       <c r="H49" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -15497,7 +15500,7 @@
         <v>42545</v>
       </c>
       <c r="H50" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -15559,10 +15562,11 @@
         <v>44332</v>
       </c>
       <c r="H52" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H52" xr:uid="{9FE631C3-EF31-4935-8D2C-303DE0FA2CF9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
+++ b/static/bestenlijsten/TM_bestenlijst_technisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b50eeb736046b11/Bureaublad/EvE/Atletiek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3895" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7F485C-BB6A-427B-961F-D65C43760876}"/>
+  <xr:revisionPtr revIDLastSave="3915" documentId="8_{0FF1DEEE-0045-438D-A58D-60C2CDBAE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7CB6299-80DF-49D5-BF79-930F03C2EEDD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="1" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Discus" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="591">
   <si>
     <t>Mannen</t>
   </si>
@@ -393,7 +393,10 @@
     <t>Trystan de Weerdt</t>
   </si>
   <si>
-    <t>Jasper Heesbeen</t>
+    <t>Nico Hesse</t>
+  </si>
+  <si>
+    <t>SV Werder Bremen</t>
   </si>
   <si>
     <t>Robert Bervoets</t>
@@ -678,46 +681,49 @@
     <t>AV 192</t>
   </si>
   <si>
+    <t>Keno Krieger</t>
+  </si>
+  <si>
+    <t>Ethan Welre</t>
+  </si>
+  <si>
+    <t>Navaro Aboikonie</t>
+  </si>
+  <si>
+    <t>Wik Breure</t>
+  </si>
+  <si>
+    <t>Pijnenburg</t>
+  </si>
+  <si>
+    <t>Hent van Schoten</t>
+  </si>
+  <si>
+    <t>AV Oss '78</t>
+  </si>
+  <si>
+    <t>Fabian Biondina</t>
+  </si>
+  <si>
+    <t>Alexander Soethout</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>AV 1923</t>
+  </si>
+  <si>
+    <t>Jelle van der Zon</t>
+  </si>
+  <si>
+    <t>De Spartaan</t>
+  </si>
+  <si>
+    <t>Ramon Biondina</t>
+  </si>
+  <si>
     <t>Erwin Slokker</t>
-  </si>
-  <si>
-    <t>Ethan Welre</t>
-  </si>
-  <si>
-    <t>Navaro Aboikonie</t>
-  </si>
-  <si>
-    <t>Wik Breure</t>
-  </si>
-  <si>
-    <t>Pijnenburg</t>
-  </si>
-  <si>
-    <t>Hent van Schoten</t>
-  </si>
-  <si>
-    <t>AV Oss '78</t>
-  </si>
-  <si>
-    <t>Fabian Biondina</t>
-  </si>
-  <si>
-    <t>Alexander Soethout</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>AV 1923</t>
-  </si>
-  <si>
-    <t>Jelle van der Zon</t>
-  </si>
-  <si>
-    <t>De Spartaan</t>
-  </si>
-  <si>
-    <t>Ramon Biondina</t>
   </si>
   <si>
     <t>Zuidwal</t>
@@ -1822,10 +1828,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm:ss.00"/>
     <numFmt numFmtId="165" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="d\-mm\-yy;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -1862,7 +1869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1905,6 +1912,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2247,7 +2255,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3444,7 +3452,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3455,22 +3463,22 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C1" s="21">
-        <v>45142</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+        <v>553</v>
+      </c>
+      <c r="C1" s="22">
+        <v>45173</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -3478,7 +3486,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3487,72 +3495,72 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B9" s="10">
         <f>Verspringen!D$5</f>
@@ -3605,7 +3613,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B10" s="10">
         <f>HSS!D$5</f>
@@ -3613,7 +3621,7 @@
       </c>
       <c r="C10" s="10">
         <f>HSS!D$14</f>
-        <v>14.02</v>
+        <v>14.13</v>
       </c>
       <c r="D10" s="10">
         <f>HSS!D$19</f>
@@ -3658,7 +3666,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B11">
         <f>Kogelstoten!D$5</f>
@@ -3711,7 +3719,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B12">
         <f>Kogelslingeren!D$5</f>
@@ -3764,7 +3772,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B13" s="10">
         <f>Hoog!D$5</f>
@@ -3772,7 +3780,7 @@
       </c>
       <c r="C13" s="10">
         <f>Hoog!D$14</f>
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="D13" s="10">
         <f>Hoog!D$19</f>
@@ -3817,7 +3825,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B14" s="10">
         <f>Polshoog!D$5</f>
@@ -3870,7 +3878,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B15">
         <f>Discus!D$5</f>
@@ -3923,7 +3931,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B16" s="10">
         <f>Speer!D$5</f>
@@ -3977,7 +3985,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="14"/>
       <c r="B18" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +4030,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4055,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -4066,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -4077,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -4088,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -4099,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -4110,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -4121,7 +4129,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -4132,7 +4140,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -4143,7 +4151,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -4154,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -4198,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -4209,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -4220,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -4231,7 +4239,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -4242,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -4253,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -4264,7 +4272,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -4275,7 +4283,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -4286,7 +4294,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -4297,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -4341,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -4352,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -4363,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -4374,7 +4382,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
@@ -4385,7 +4393,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
@@ -4396,7 +4404,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -4407,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
@@ -4418,7 +4426,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -4429,7 +4437,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
@@ -4440,7 +4448,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
@@ -4484,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E47" s="7">
         <v>0</v>
@@ -4495,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
@@ -4506,7 +4514,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
@@ -4517,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
@@ -4528,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E51" s="7">
         <v>0</v>
@@ -4539,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E52" s="7">
         <v>0</v>
@@ -4550,7 +4558,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E53" s="7">
         <v>0</v>
@@ -4561,7 +4569,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
@@ -4572,7 +4580,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E55" s="7">
         <v>0</v>
@@ -4583,7 +4591,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E56" s="7">
         <v>0</v>
@@ -4630,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="1"/>
@@ -4644,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
@@ -4655,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E63" s="7">
         <v>0</v>
@@ -4666,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E64" s="7">
         <v>0</v>
@@ -4677,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E65" s="7">
         <v>0</v>
@@ -4688,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E66" s="7">
         <v>0</v>
@@ -4699,7 +4707,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E67" s="7">
         <v>0</v>
@@ -4710,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E68" s="8">
         <v>0</v>
@@ -4721,7 +4729,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -4732,7 +4740,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E70" s="7">
         <v>0</v>
@@ -4779,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E75" s="7">
         <v>0</v>
@@ -4790,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E76" s="7">
         <v>0</v>
@@ -4801,7 +4809,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E77" s="7">
         <v>0</v>
@@ -4812,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E78" s="7">
         <v>0</v>
@@ -4823,7 +4831,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E79" s="7">
         <v>0</v>
@@ -4834,7 +4842,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E80" s="7">
         <v>0</v>
@@ -4845,7 +4853,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
@@ -4856,7 +4864,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E82" s="8">
         <v>0</v>
@@ -4867,7 +4875,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E83" s="7">
         <v>0</v>
@@ -4878,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E84" s="7">
         <v>0</v>
@@ -4901,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6957942-D991-4424-BBD7-6AB28243DB19}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4911,7 +4919,7 @@
     <col min="2" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4921,7 +4929,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5110,13 +5118,13 @@
         <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D14" s="10">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="F14" s="4">
-        <v>43658</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5149,10 +5157,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" s="10">
         <v>1.95</v>
@@ -5166,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -5183,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -5200,10 +5208,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="10">
         <v>1.9</v>
@@ -5217,10 +5225,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10">
         <v>1.9</v>
@@ -5251,10 +5259,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10">
         <v>1.89</v>
@@ -5268,10 +5276,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="10">
         <v>1.85</v>
@@ -5288,7 +5296,7 @@
         <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="10">
         <v>1.85</v>
@@ -5302,7 +5310,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -5319,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -5336,10 +5344,10 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D30" s="10">
         <v>1.85</v>
@@ -5353,7 +5361,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -5370,7 +5378,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
         <v>95</v>
@@ -5412,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -5429,10 +5437,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37" s="10">
         <v>1.95</v>
@@ -5446,10 +5454,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D38" s="10">
         <v>1.94</v>
@@ -5463,10 +5471,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="10">
         <v>1.94</v>
@@ -5480,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
@@ -5497,10 +5505,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="10">
         <v>1.92</v>
@@ -5514,10 +5522,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D42" s="10">
         <v>1.9</v>
@@ -5531,7 +5539,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
@@ -5548,10 +5556,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D44" s="10">
         <v>1.9</v>
@@ -5565,7 +5573,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
         <v>102</v>
@@ -5582,7 +5590,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -5624,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -5641,7 +5649,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
@@ -5658,10 +5666,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="10">
         <v>1.74</v>
@@ -5675,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -5692,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
         <v>72</v>
@@ -5709,7 +5717,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -5726,10 +5734,10 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D56" s="12">
         <v>1.7</v>
@@ -5743,7 +5751,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -5760,7 +5768,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
@@ -5777,7 +5785,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
         <v>100</v>
@@ -5819,10 +5827,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D64" s="10">
         <v>1.71</v>
@@ -5837,10 +5845,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D65" s="10">
         <v>1.7</v>
@@ -5854,7 +5862,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -5871,10 +5879,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D67" s="10">
         <v>1.7</v>
@@ -5889,7 +5897,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -5906,10 +5914,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D69" s="10">
         <v>1.65</v>
@@ -5923,10 +5931,10 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D70" s="10">
         <v>1.64</v>
@@ -5940,7 +5948,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
         <v>45</v>
@@ -5957,7 +5965,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
         <v>69</v>
@@ -5974,10 +5982,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D73" s="10">
         <v>1.6</v>
@@ -5991,10 +5999,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D74" s="10">
         <v>1.6</v>
@@ -6033,10 +6041,10 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D78" s="10">
         <v>1.75</v>
@@ -6050,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -6067,10 +6075,10 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D80" s="10">
         <v>1.65</v>
@@ -6084,10 +6092,10 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D81" s="10">
         <v>1.65</v>
@@ -6101,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
         <v>46</v>
@@ -6118,7 +6126,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -6135,10 +6143,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D84" s="10">
         <v>1.61</v>
@@ -6152,7 +6160,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -6169,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
         <v>53</v>
@@ -6186,10 +6194,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D87" s="10">
         <v>1.6</v>
@@ -6203,7 +6211,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
         <v>42</v>
@@ -6220,10 +6228,10 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D89" s="10">
         <v>1.6</v>
@@ -6237,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D90" s="10">
         <v>1.6</v>
@@ -6254,10 +6262,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D91" s="10">
         <v>1.6</v>
@@ -6275,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1D5E1-3BCE-400F-AF67-CFC9DF249C88}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6286,7 +6294,7 @@
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6296,7 +6304,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6329,10 +6337,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D5" s="10">
         <v>16.02</v>
@@ -6349,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -6369,7 +6377,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -6389,10 +6397,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D8" s="10">
         <v>14.79</v>
@@ -6409,10 +6417,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D9" s="10">
         <v>14.53</v>
@@ -6429,10 +6437,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D10" s="10">
         <v>14.48</v>
@@ -6449,7 +6457,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -6469,7 +6477,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -6489,10 +6497,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D13" s="10">
         <v>14.26</v>
@@ -6509,19 +6517,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="D14" s="10">
-        <v>14.02</v>
+        <v>14.13</v>
       </c>
       <c r="E14" s="7">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="F14" s="4">
-        <v>41033</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6554,10 +6562,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19" s="10">
         <v>16.170000000000002</v>
@@ -6574,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -6594,10 +6602,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D21" s="10">
         <v>13.71</v>
@@ -6614,10 +6622,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D22" s="10">
         <v>13.71</v>
@@ -6634,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
         <v>102</v>
@@ -6654,10 +6662,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D24" s="10">
         <v>13.59</v>
@@ -6674,10 +6682,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D25" s="10">
         <v>13.27</v>
@@ -6714,10 +6722,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D27" s="10">
         <v>13.1</v>
@@ -6734,7 +6742,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
         <v>102</v>
@@ -6817,10 +6825,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D35" s="10">
         <v>13.02</v>
@@ -6835,10 +6843,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D36" s="10">
         <v>12.96</v>
@@ -6855,7 +6863,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -6873,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -6893,7 +6901,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
@@ -6911,10 +6919,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D40" s="10">
         <v>12.74</v>
@@ -6931,7 +6939,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -6949,7 +6957,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -6994,10 +7002,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D47" s="10">
         <v>12.66</v>
@@ -7014,7 +7022,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -7034,10 +7042,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" t="s">
         <v>235</v>
-      </c>
-      <c r="C49" t="s">
-        <v>233</v>
       </c>
       <c r="D49" s="10">
         <v>12.45</v>
@@ -7054,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -7074,10 +7082,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D51" s="10">
         <v>12.28</v>
@@ -7094,7 +7102,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -7114,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -7131,7 +7139,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -7151,7 +7159,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -7171,7 +7179,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -7221,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -7241,10 +7249,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D62" s="10">
         <v>11.19</v>
@@ -7261,7 +7269,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
         <v>102</v>
@@ -7281,10 +7289,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D64" s="10">
         <v>10.97</v>
@@ -7299,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -7317,10 +7325,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D66" s="10">
         <v>10.81</v>
@@ -7337,7 +7345,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -7357,7 +7365,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
@@ -7375,7 +7383,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -7393,7 +7401,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -7441,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s">
         <v>74</v>
@@ -7461,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -7481,7 +7489,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s">
         <v>66</v>
@@ -7501,10 +7509,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D78" s="10">
         <v>11.12</v>
@@ -7521,7 +7529,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C79" t="s">
         <v>102</v>
@@ -7541,7 +7549,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -7559,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C81" t="s">
         <v>42</v>
@@ -7579,7 +7587,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C82" t="s">
         <v>49</v>
@@ -7599,10 +7607,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D83" s="10">
         <v>10.75</v>
@@ -7619,7 +7627,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -7644,8 +7652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC66621-F239-4EEE-89F3-9BEAE8A324F9}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7654,7 +7662,7 @@
     <col min="2" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7664,7 +7672,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7698,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D5" s="10">
         <v>67.650000000000006</v>
@@ -7715,10 +7723,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D6" s="10">
         <v>66.63</v>
@@ -7732,10 +7740,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D7" s="10">
         <v>64.13</v>
@@ -7749,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -7766,10 +7774,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D9" s="10">
         <v>59.35</v>
@@ -7783,7 +7791,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -7800,10 +7808,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D11" s="10">
         <v>57.1</v>
@@ -7817,7 +7825,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -7834,7 +7842,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -7846,7 +7854,7 @@
         <v>38135</v>
       </c>
       <c r="G13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7854,7 +7862,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -7914,10 +7922,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D20" s="10">
         <v>63.48</v>
@@ -7931,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -7951,7 +7959,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D22" s="10">
         <v>56.32</v>
@@ -7965,7 +7973,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -7982,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -7999,7 +8007,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -8016,7 +8024,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -8050,7 +8058,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -8110,10 +8118,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D34" s="10">
         <v>62.38</v>
@@ -8130,7 +8138,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D35" s="10">
         <v>58.81</v>
@@ -8144,10 +8152,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D36" s="10">
         <v>57.56</v>
@@ -8161,7 +8169,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -8178,7 +8186,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s">
         <v>95</v>
@@ -8195,7 +8203,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -8212,7 +8220,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C40" t="s">
         <v>95</v>
@@ -8229,10 +8237,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D41" s="10">
         <v>47.82</v>
@@ -8247,10 +8255,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D42" s="10">
         <v>46.73</v>
@@ -8289,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -8306,10 +8314,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D48" s="10">
         <v>58.44</v>
@@ -8323,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -8340,7 +8348,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
         <v>102</v>
@@ -8357,7 +8365,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
@@ -8374,7 +8382,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -8409,7 +8417,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -8426,7 +8434,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -8443,7 +8451,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -8485,10 +8493,10 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D61" s="10">
         <v>52.52</v>
@@ -8503,10 +8511,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C62" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D62" s="10">
         <v>49.56</v>
@@ -8537,7 +8545,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
@@ -8554,7 +8562,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -8571,10 +8579,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D66" s="10">
         <v>46.68</v>
@@ -8588,10 +8596,10 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D67" s="10">
         <v>42.78</v>
@@ -8605,7 +8613,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -8622,10 +8630,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D69" s="10">
         <v>40.4</v>
@@ -8639,7 +8647,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -8681,10 +8689,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C75" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D75" s="10">
         <v>65.56</v>
@@ -8698,10 +8706,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D76" s="10">
         <v>51.3</v>
@@ -8715,7 +8723,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C77" t="s">
         <v>49</v>
@@ -8732,10 +8740,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D78" s="10">
         <v>49.52</v>
@@ -8749,10 +8757,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D79" s="10">
         <v>48.67</v>
@@ -8766,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D80" s="10">
         <v>47.76</v>
@@ -8783,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -8800,7 +8808,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C82" t="s">
         <v>66</v>
@@ -8834,7 +8842,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -8857,7 +8865,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8876,7 +8884,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8909,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -8927,7 +8935,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -8944,7 +8952,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -8961,7 +8969,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -8979,7 +8987,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -8996,7 +9004,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -9014,7 +9022,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -9032,7 +9040,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -9050,7 +9058,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -9068,10 +9076,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D14" s="10">
         <v>16.21</v>
@@ -9111,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -9165,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -9201,7 +9209,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -9219,10 +9227,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D25" s="10">
         <v>15.43</v>
@@ -9237,10 +9245,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D26" s="10">
         <v>15.38</v>
@@ -9255,10 +9263,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D27" s="10">
         <v>15.1</v>
@@ -9273,7 +9281,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -9318,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -9354,7 +9362,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -9372,10 +9380,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D36" s="10">
         <v>16.920000000000002</v>
@@ -9408,7 +9416,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
@@ -9426,10 +9434,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D39" s="10">
         <v>15.83</v>
@@ -9444,10 +9452,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D40" s="10">
         <v>15.72</v>
@@ -9480,7 +9488,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -9523,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
@@ -9541,7 +9549,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C48" t="s">
         <v>100</v>
@@ -9575,7 +9583,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -9593,7 +9601,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s">
         <v>78</v>
@@ -9611,7 +9619,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
@@ -9628,10 +9636,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D53" s="10">
         <v>14</v>
@@ -9664,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D55" s="10">
         <v>13.62</v>
@@ -9682,7 +9690,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -9725,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -9761,7 +9769,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -9797,7 +9805,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C65" t="s">
         <v>31</v>
@@ -9815,7 +9823,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -9836,7 +9844,7 @@
         <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D67" s="10">
         <v>12.81</v>
@@ -9869,10 +9877,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C69" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D69" s="10">
         <v>12.44</v>
@@ -9887,7 +9895,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -9947,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C76" t="s">
         <v>102</v>
@@ -9965,7 +9973,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -9982,10 +9990,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D78" s="10">
         <v>14.73</v>
@@ -10000,7 +10008,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C79" t="s">
         <v>63</v>
@@ -10018,10 +10026,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="10">
         <v>14.6</v>
@@ -10054,7 +10062,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C82" t="s">
         <v>74</v>
@@ -10072,7 +10080,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C83" t="s">
         <v>91</v>
@@ -10090,7 +10098,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C84" t="s">
         <v>31</v>
@@ -10111,7 +10119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31CB02-91F0-4C9B-9EAB-0CB6F32967A5}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
@@ -10131,7 +10139,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10164,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -10181,10 +10189,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D6" s="10">
         <v>5.05</v>
@@ -10198,10 +10206,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D7" s="10">
         <v>5</v>
@@ -10215,7 +10223,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -10232,10 +10240,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D9" s="10">
         <v>5</v>
@@ -10249,10 +10257,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D10" s="10">
         <v>5</v>
@@ -10266,10 +10274,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D11" s="10">
         <v>5</v>
@@ -10283,10 +10291,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D12" s="10">
         <v>4.9000000000000004</v>
@@ -10300,10 +10308,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D13" s="10">
         <v>4.84</v>
@@ -10318,10 +10326,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D14" s="10">
         <v>4.8</v>
@@ -10335,7 +10343,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -10352,10 +10360,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16" s="10">
         <v>4.8</v>
@@ -10394,10 +10402,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D20" s="10">
         <v>4.8</v>
@@ -10411,10 +10419,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D21" s="10">
         <v>4.7</v>
@@ -10428,10 +10436,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D22" s="10">
         <v>4.5999999999999996</v>
@@ -10445,10 +10453,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D23" s="10">
         <v>4.4000000000000004</v>
@@ -10462,10 +10470,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D24" s="10">
         <v>4.4000000000000004</v>
@@ -10479,10 +10487,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D25" s="10">
         <v>4.4000000000000004</v>
@@ -10496,10 +10504,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D26" s="10">
         <v>4.28</v>
@@ -10513,10 +10521,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D27" s="10">
         <v>4.24</v>
@@ -10530,7 +10538,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -10547,10 +10555,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D29" s="10">
         <v>4</v>
@@ -10564,10 +10572,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C30" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D30" s="10">
         <v>4</v>
@@ -10581,10 +10589,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D31" s="10">
         <v>4</v>
@@ -10598,10 +10606,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D32" s="10">
         <v>4</v>
@@ -10615,7 +10623,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -10632,7 +10640,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -10649,7 +10657,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
@@ -10691,10 +10699,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D39" s="10">
         <v>4.42</v>
@@ -10708,10 +10716,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D40" s="10">
         <v>4.4000000000000004</v>
@@ -10725,10 +10733,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C41" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D41" s="10">
         <v>4.0999999999999996</v>
@@ -10742,10 +10750,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D42" s="10">
         <v>4.0999999999999996</v>
@@ -10759,10 +10767,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D43" s="10">
         <v>4.0999999999999996</v>
@@ -10776,7 +10784,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -10793,10 +10801,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C45" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D45" s="10">
         <v>4.0199999999999996</v>
@@ -10810,10 +10818,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D46" s="10">
         <v>4.01</v>
@@ -10827,10 +10835,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -10844,10 +10852,10 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D48" s="10">
         <v>4</v>
@@ -10861,10 +10869,10 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C49" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -10878,7 +10886,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -10895,10 +10903,10 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -10912,10 +10920,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D52" s="10">
         <v>4</v>
@@ -10954,10 +10962,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D56" s="10">
         <v>4.13</v>
@@ -10971,10 +10979,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C57" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D57" s="10">
         <v>4.0999999999999996</v>
@@ -10988,7 +10996,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C58" t="s">
         <v>23</v>
@@ -11005,10 +11013,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C59" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D59" s="10">
         <v>3.8</v>
@@ -11022,7 +11030,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -11039,7 +11047,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -11056,10 +11064,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D62" s="10">
         <v>3.7</v>
@@ -11073,10 +11081,10 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C63" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D63" s="10">
         <v>3.7</v>
@@ -11090,7 +11098,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -11107,7 +11115,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -11149,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -11167,10 +11175,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D71" s="10">
         <v>3.53</v>
@@ -11184,7 +11192,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
         <v>37</v>
@@ -11201,10 +11209,10 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C73" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D73" s="10">
         <v>3.24</v>
@@ -11218,7 +11226,7 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s">
         <v>66</v>
@@ -11235,10 +11243,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>432</v>
+      </c>
+      <c r="C75" t="s">
         <v>430</v>
-      </c>
-      <c r="C75" t="s">
-        <v>428</v>
       </c>
       <c r="D75" s="10">
         <v>3.1</v>
@@ -11252,7 +11260,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
@@ -11269,7 +11277,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
@@ -11286,7 +11294,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C78" t="s">
         <v>33</v>
@@ -11303,7 +11311,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -11320,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C80" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D80" s="12">
         <v>2.9</v>
@@ -11362,10 +11370,10 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C84" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D84" s="10">
         <v>3.96</v>
@@ -11379,10 +11387,10 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C85" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D85" s="10">
         <v>3.5</v>
@@ -11396,10 +11404,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C86" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D86" s="10">
         <v>3.43</v>
@@ -11413,7 +11421,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C87" t="s">
         <v>66</v>
@@ -11430,7 +11438,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -11447,7 +11455,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -11464,10 +11472,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C90" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D90" s="10">
         <v>3.2</v>
@@ -11481,10 +11489,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
+        <v>432</v>
+      </c>
+      <c r="C91" t="s">
         <v>430</v>
-      </c>
-      <c r="C91" t="s">
-        <v>428</v>
       </c>
       <c r="D91" s="10">
         <v>3.2</v>
@@ -11498,7 +11506,7 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -11515,7 +11523,7 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -11536,8 +11544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A212C88-9FEE-4EFF-A228-7223FF8A2C95}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -11556,7 +11564,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11589,10 +11597,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D5" s="10">
         <v>71.86</v>
@@ -11606,7 +11614,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -11623,10 +11631,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D7" s="10">
         <v>70.069999999999993</v>
@@ -11640,7 +11648,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -11657,10 +11665,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D9" s="10">
         <v>68.67</v>
@@ -11674,10 +11682,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D10" s="10">
         <v>67.78</v>
@@ -11691,7 +11699,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -11708,10 +11716,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D12" s="10">
         <v>65.42</v>
@@ -11725,7 +11733,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -11742,7 +11750,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -11784,10 +11792,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D19" s="10">
         <v>66.42</v>
@@ -11801,7 +11809,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C20" t="s">
         <v>100</v>
@@ -11818,10 +11826,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" s="10">
         <v>62.38</v>
@@ -11835,10 +11843,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D22" s="10">
         <v>58.92</v>
@@ -11852,10 +11860,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D23" s="10">
         <v>58.72</v>
@@ -11869,10 +11877,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D24" s="10">
         <v>58.55</v>
@@ -11886,10 +11894,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D25" s="10">
         <v>58.15</v>
@@ -11903,7 +11911,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -11920,7 +11928,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -11937,7 +11945,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -11979,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
@@ -11996,10 +12004,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D34" s="10">
         <v>63.02</v>
@@ -12013,10 +12021,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D35" s="10">
         <v>62.42</v>
@@ -12030,10 +12038,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C36" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D36" s="10">
         <v>60.54</v>
@@ -12047,7 +12055,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
@@ -12064,10 +12072,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D38" s="10">
         <v>57.27</v>
@@ -12081,10 +12089,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C39" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D39" s="10">
         <v>54.15</v>
@@ -12098,7 +12106,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
@@ -12115,10 +12123,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C41" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D41" s="10">
         <v>53.98</v>
@@ -12132,7 +12140,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -12174,10 +12182,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C47" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D47" s="10">
         <v>57.84</v>
@@ -12191,7 +12199,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -12208,10 +12216,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C49" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D49" s="10">
         <v>51.89</v>
@@ -12225,10 +12233,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D50" s="10">
         <v>47.99</v>
@@ -12242,7 +12250,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
@@ -12259,7 +12267,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
@@ -12276,10 +12284,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D53" s="10">
         <v>46.94</v>
@@ -12293,10 +12301,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C54" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D54" s="10">
         <v>45.47</v>
@@ -12310,10 +12318,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D55" s="10">
         <v>45.05</v>
@@ -12327,10 +12335,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D56" s="10">
         <v>44.19</v>
@@ -12369,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C61" t="s">
         <v>45</v>
@@ -12387,10 +12395,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C62" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D62" s="10">
         <v>50.05</v>
@@ -12404,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -12421,10 +12429,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C64" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D64" s="10">
         <v>44.23</v>
@@ -12438,7 +12446,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -12455,10 +12463,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D66" s="10">
         <v>40.78</v>
@@ -12472,7 +12480,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -12489,10 +12497,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C68" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D68" s="10">
         <v>39.47</v>
@@ -12506,10 +12514,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D69" s="10">
         <v>39.369999999999997</v>
@@ -12523,7 +12531,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C70" t="s">
         <v>66</v>
@@ -12565,10 +12573,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D75" s="10">
         <v>47.17</v>
@@ -12582,7 +12590,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C76" t="s">
         <v>45</v>
@@ -12599,7 +12607,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C77" t="s">
         <v>108</v>
@@ -12616,10 +12624,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D78" s="10">
         <v>42.42</v>
@@ -12633,7 +12641,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C79" t="s">
         <v>66</v>
@@ -12650,10 +12658,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C80" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D80" s="10">
         <v>39.97</v>
@@ -12667,10 +12675,10 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C81" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D81" s="10">
         <v>39.76</v>
@@ -12684,10 +12692,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D82" s="10">
         <v>39.57</v>
@@ -12701,10 +12709,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D83" s="10">
         <v>38.950000000000003</v>
@@ -12718,10 +12726,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C84" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D84" s="10">
         <v>38.880000000000003</v>
@@ -12739,8 +12747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3AB92-3F00-409D-A557-1F922B760427}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -12760,7 +12768,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12793,10 +12801,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D5" s="10">
         <v>7.36</v>
@@ -12813,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -12833,10 +12841,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D7" s="10">
         <v>7.29</v>
@@ -12853,7 +12861,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -12873,7 +12881,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -12891,10 +12899,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D10" s="10">
         <v>7.1</v>
@@ -12911,7 +12919,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -12929,10 +12937,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D12" s="10">
         <v>7.05</v>
@@ -12949,10 +12957,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D13" s="10">
         <v>7.03</v>
@@ -12967,7 +12975,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -13012,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -13032,10 +13040,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D20" s="10">
         <v>7.1</v>
@@ -13050,7 +13058,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -13070,7 +13078,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -13090,7 +13098,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -13110,10 +13118,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D24" s="10">
         <v>6.86</v>
@@ -13128,7 +13136,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -13146,7 +13154,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -13166,7 +13174,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
@@ -13186,7 +13194,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -13231,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -13251,7 +13259,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -13271,7 +13279,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -13291,7 +13299,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -13311,7 +13319,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C37" t="s">
         <v>53</v>
@@ -13331,10 +13339,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C38" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D38" s="10">
         <v>6.52</v>
@@ -13351,7 +13359,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -13371,7 +13379,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -13391,7 +13399,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -13411,10 +13419,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D42" s="10">
         <v>6.46</v>
@@ -13456,10 +13464,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C47" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D47" s="10">
         <v>6.39</v>
@@ -13476,10 +13484,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D48" s="10">
         <v>6.2</v>
@@ -13496,10 +13504,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D49" s="10">
         <v>5.88</v>
@@ -13514,10 +13522,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D50" s="10">
         <v>5.84</v>
@@ -13534,7 +13542,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
@@ -13554,10 +13562,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C52" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D52" s="10">
         <v>5.81</v>
@@ -13574,10 +13582,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D53" s="10">
         <v>5.79</v>
@@ -13594,10 +13602,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C54" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D54" s="10">
         <v>5.74</v>
@@ -13614,10 +13622,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C55" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D55" s="10">
         <v>5.73</v>
@@ -13634,7 +13642,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
@@ -13654,7 +13662,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -13674,10 +13682,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C58" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D58" s="10">
         <v>5.66</v>
@@ -13719,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -13739,10 +13747,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D62" s="10">
         <v>5.73</v>
@@ -13759,7 +13767,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -13779,7 +13787,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
@@ -13799,7 +13807,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -13819,10 +13827,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D66" s="10">
         <v>5.68</v>
@@ -13839,7 +13847,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
@@ -13859,7 +13867,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -13877,10 +13885,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C69" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D69" s="10">
         <v>5.59</v>
@@ -13897,7 +13905,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -13946,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C75" t="s">
         <v>66</v>
@@ -13966,10 +13974,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D76" s="10">
         <v>5.75</v>
@@ -13986,7 +13994,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C77" t="s">
         <v>45</v>
@@ -14006,10 +14014,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D78" s="10">
         <v>5.68</v>
@@ -14026,10 +14034,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D79" s="10">
         <v>5.57</v>
@@ -14046,10 +14054,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C80" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D80" s="10">
         <v>5.52</v>
@@ -14066,7 +14074,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
         <v>31</v>
@@ -14086,7 +14094,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C82" t="s">
         <v>100</v>
@@ -14106,10 +14114,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D83" s="10">
         <v>5.38</v>
@@ -14126,10 +14134,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D84" s="10">
         <v>5.36</v>
@@ -14146,10 +14154,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C85" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D85" s="10">
         <v>5.36</v>
@@ -14171,8 +14179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE631C3-EF31-4935-8D2C-303DE0FA2CF9}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -14188,19 +14196,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C1" s="13">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>2</v>
@@ -14218,15 +14226,15 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C5" t="str">
         <f>Discus!B5</f>
@@ -14240,20 +14248,20 @@
         <f>Discus!D5</f>
         <v>61.34</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="20">
         <f>Discus!F5</f>
         <v>38926</v>
       </c>
       <c r="H5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C6" t="str">
         <f>Discus!B19</f>
@@ -14267,20 +14275,20 @@
         <f>Discus!D19</f>
         <v>56.34</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="20">
         <f>Discus!F19</f>
         <v>41495</v>
       </c>
       <c r="H6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C7" t="str">
         <f>Discus!B33</f>
@@ -14294,20 +14302,20 @@
         <f>Discus!D33</f>
         <v>55.65</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="20">
         <f>Discus!F33</f>
         <v>44022</v>
       </c>
       <c r="H7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C8" t="str">
         <f>Discus!B47</f>
@@ -14321,20 +14329,20 @@
         <f>Discus!D47</f>
         <v>56.55</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="20">
         <f>Discus!F47</f>
         <v>39598</v>
       </c>
       <c r="H8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C9" t="str">
         <f>Discus!B61</f>
@@ -14348,20 +14356,20 @@
         <f>Discus!D61</f>
         <v>44.92</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="20">
         <f>Discus!F61</f>
         <v>39598</v>
       </c>
       <c r="H9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C10" t="str">
         <f>Discus!B75</f>
@@ -14375,20 +14383,20 @@
         <f>Discus!D75</f>
         <v>40.71</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="20">
         <f>Discus!F75</f>
         <v>44778</v>
       </c>
       <c r="H10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C11" t="str">
         <f>Hoog!B5</f>
@@ -14402,20 +14410,20 @@
         <f>Hoog!D5</f>
         <v>2.1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="20">
         <f>Hoog!F5</f>
         <v>37135</v>
       </c>
       <c r="H11" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C12" t="str">
         <f>Hoog!B19</f>
@@ -14429,20 +14437,20 @@
         <f>Hoog!D19</f>
         <v>1.95</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="20">
         <f>Hoog!F19</f>
         <v>41131</v>
       </c>
       <c r="H12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B13" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C13" t="str">
         <f>Hoog!B36</f>
@@ -14456,20 +14464,20 @@
         <f>Hoog!D36</f>
         <v>1.95</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="20">
         <f>Hoog!F36</f>
         <v>39626</v>
       </c>
       <c r="H13" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C14" t="str">
         <f>Hoog!B50</f>
@@ -14483,20 +14491,20 @@
         <f>Hoog!D50</f>
         <v>1.76</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="20">
         <f>Hoog!F50</f>
         <v>43686</v>
       </c>
       <c r="H14" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" t="s">
         <v>565</v>
-      </c>
-      <c r="B15" t="s">
-        <v>563</v>
       </c>
       <c r="C15" t="str">
         <f>Hoog!B64</f>
@@ -14510,20 +14518,20 @@
         <f>Hoog!D64</f>
         <v>1.71</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="20">
         <f>Hoog!F64</f>
         <v>44050</v>
       </c>
       <c r="H15" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C16" t="str">
         <f>Hoog!B78</f>
@@ -14537,20 +14545,20 @@
         <f>Hoog!D78</f>
         <v>1.75</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="20">
         <f>Hoog!F78</f>
         <v>44022</v>
       </c>
       <c r="H16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C17" t="str">
         <f>HSS!B5</f>
@@ -14568,20 +14576,20 @@
         <f>HSS!E5</f>
         <v>0.6</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="20">
         <f>HSS!F5</f>
         <v>45114</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B18" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C18" t="str">
         <f>HSS!B19</f>
@@ -14599,20 +14607,20 @@
         <f>HSS!E19</f>
         <v>1.3</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="20">
         <f>HSS!F19</f>
         <v>45114</v>
       </c>
       <c r="H18" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B19" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C19" t="str">
         <f>HSS!B33</f>
@@ -14630,20 +14638,20 @@
         <f>HSS!E33</f>
         <v>0</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="20">
         <f>HSS!F33</f>
         <v>38576</v>
       </c>
       <c r="H19" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B20" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C20" t="str">
         <f>HSS!B47</f>
@@ -14661,20 +14669,20 @@
         <f>HSS!E47</f>
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="20">
         <f>HSS!F47</f>
         <v>42195</v>
       </c>
       <c r="H20" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C21" t="str">
         <f>HSS!B61</f>
@@ -14692,20 +14700,20 @@
         <f>HSS!E61</f>
         <v>1</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="20">
         <f>HSS!F61</f>
         <v>43637</v>
       </c>
       <c r="H21" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" t="s">
         <v>566</v>
-      </c>
-      <c r="B22" t="s">
-        <v>564</v>
       </c>
       <c r="C22" t="str">
         <f>HSS!B75</f>
@@ -14723,20 +14731,20 @@
         <f>HSS!E75</f>
         <v>1.2</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="20">
         <f>HSS!F75</f>
         <v>43294</v>
       </c>
       <c r="H22" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B23" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C23" t="str">
         <f>Kogelslingeren!B5</f>
@@ -14750,20 +14758,20 @@
         <f>Kogelslingeren!D5</f>
         <v>67.650000000000006</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="20">
         <f>Kogelslingeren!F5</f>
         <v>37864</v>
       </c>
       <c r="H23" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B24" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C24" t="str">
         <f>Kogelslingeren!B19</f>
@@ -14777,20 +14785,20 @@
         <f>Kogelslingeren!D19</f>
         <v>67.19</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="20">
         <f>Kogelslingeren!F19</f>
         <v>41397</v>
       </c>
       <c r="H24" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B25" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C25" t="str">
         <f>Kogelslingeren!B33</f>
@@ -14804,20 +14812,20 @@
         <f>Kogelslingeren!D33</f>
         <v>72.540000000000006</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="20">
         <f>Kogelslingeren!F33</f>
         <v>41152</v>
       </c>
       <c r="H25" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C26" t="str">
         <f>Kogelslingeren!B47</f>
@@ -14831,20 +14839,20 @@
         <f>Kogelslingeren!D47</f>
         <v>61.56</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="20">
         <f>Kogelslingeren!F47</f>
         <v>44332</v>
       </c>
       <c r="H26" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B27" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C27" t="str">
         <f>Kogelslingeren!B61</f>
@@ -14858,20 +14866,20 @@
         <f>Kogelslingeren!D61</f>
         <v>52.52</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="20">
         <f>Kogelslingeren!F61</f>
         <v>36728</v>
       </c>
       <c r="H27" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B28" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C28" t="str">
         <f>Kogelslingeren!B75</f>
@@ -14885,20 +14893,20 @@
         <f>Kogelslingeren!D75</f>
         <v>65.56</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="20">
         <f>Kogelslingeren!F75</f>
         <v>44332</v>
       </c>
       <c r="H28" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B29" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C29" t="str">
         <f>Kogelstoten!B5</f>
@@ -14912,20 +14920,20 @@
         <f>Kogelstoten!D5</f>
         <v>19.02</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="20">
         <f>Kogelstoten!F5</f>
         <v>41131</v>
       </c>
       <c r="H29" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B30" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C30" t="str">
         <f>Kogelstoten!B19</f>
@@ -14939,20 +14947,20 @@
         <f>Kogelstoten!D19</f>
         <v>16.940000000000001</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="20">
         <f>Kogelstoten!F19</f>
         <v>45058</v>
       </c>
       <c r="H30" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B31" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C31" t="str">
         <f>Kogelstoten!B33</f>
@@ -14966,20 +14974,20 @@
         <f>Kogelstoten!D33</f>
         <v>18.55</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="20">
         <f>Kogelstoten!F33</f>
         <v>44673</v>
       </c>
       <c r="H31" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B32" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C32" t="str">
         <f>Kogelstoten!B47</f>
@@ -14993,20 +15001,20 @@
         <f>Kogelstoten!D47</f>
         <v>17.149999999999999</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="20">
         <f>Kogelstoten!F47</f>
         <v>44050</v>
       </c>
       <c r="H32" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B33" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C33" t="str">
         <f>Kogelstoten!B61</f>
@@ -15020,20 +15028,20 @@
         <f>Kogelstoten!D61</f>
         <v>16.12</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="20">
         <f>Kogelstoten!F61</f>
         <v>44332</v>
       </c>
       <c r="H33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B34" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C34" t="str">
         <f>Kogelstoten!B75</f>
@@ -15047,20 +15055,20 @@
         <f>Kogelstoten!D75</f>
         <v>16.21</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="20">
         <f>Kogelstoten!F75</f>
         <v>37820</v>
       </c>
       <c r="H34" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B35" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C35" t="str">
         <f>Polshoog!B5</f>
@@ -15074,20 +15082,20 @@
         <f>Polshoog!D5</f>
         <v>5.2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="20">
         <f>Polshoog!F5</f>
         <v>41103</v>
       </c>
       <c r="H35" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B36" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C36" t="str">
         <f>Polshoog!B20</f>
@@ -15101,20 +15109,20 @@
         <f>Polshoog!D20</f>
         <v>4.8</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="20">
         <f>Polshoog!F20</f>
         <v>37456</v>
       </c>
       <c r="H36" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B37" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C37" t="str">
         <f>Polshoog!B39</f>
@@ -15128,20 +15136,20 @@
         <f>Polshoog!D39</f>
         <v>4.42</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="20">
         <f>Polshoog!F39</f>
         <v>44329</v>
       </c>
       <c r="H37" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B38" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C38" t="str">
         <f>Polshoog!B56</f>
@@ -15155,20 +15163,20 @@
         <f>Polshoog!D56</f>
         <v>4.13</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="20">
         <f>Polshoog!F56</f>
         <v>45079</v>
       </c>
       <c r="H38" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B39" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C39" t="str">
         <f>Polshoog!B70</f>
@@ -15182,20 +15190,20 @@
         <f>Polshoog!D70</f>
         <v>3.84</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="20">
         <f>Polshoog!F70</f>
         <v>44050</v>
       </c>
       <c r="H39" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B40" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C40" t="str">
         <f>Polshoog!B84</f>
@@ -15209,20 +15217,20 @@
         <f>Polshoog!D84</f>
         <v>3.96</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="20">
         <f>Polshoog!F84</f>
         <v>45114</v>
       </c>
       <c r="H40" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C41" t="str">
         <f>Speer!B5</f>
@@ -15236,20 +15244,20 @@
         <f>Speer!D5</f>
         <v>71.86</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="20">
         <f>Speer!F5</f>
         <v>44332</v>
       </c>
       <c r="H41" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B42" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C42" t="str">
         <f>Speer!B19</f>
@@ -15263,20 +15271,20 @@
         <f>Speer!D19</f>
         <v>66.42</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="20">
         <f>Speer!F19</f>
         <v>44332</v>
       </c>
       <c r="H42" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B43" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C43" t="str">
         <f>Speer!B33</f>
@@ -15290,20 +15298,20 @@
         <f>Speer!D33</f>
         <v>67.12</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="20">
         <f>Speer!F33</f>
         <v>44332</v>
       </c>
       <c r="H43" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B44" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C44" t="str">
         <f>Speer!B47</f>
@@ -15317,20 +15325,20 @@
         <f>Speer!D47</f>
         <v>57.84</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="20">
         <f>Speer!F47</f>
         <v>38156</v>
       </c>
       <c r="H44" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B45" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C45" t="str">
         <f>Speer!B61</f>
@@ -15344,20 +15352,20 @@
         <f>Speer!D61</f>
         <v>50.34</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="20">
         <f>Speer!F61</f>
         <v>44332</v>
       </c>
       <c r="H45" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B46" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C46" t="str">
         <f>Speer!B75</f>
@@ -15371,20 +15379,20 @@
         <f>Speer!D75</f>
         <v>47.17</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="20">
         <f>Speer!F75</f>
         <v>42153</v>
       </c>
       <c r="H46" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B47" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C47" t="str">
         <f>Verspringen!B5</f>
@@ -15402,20 +15410,20 @@
         <f>Verspringen!E5</f>
         <v>0.8</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="20">
         <f>Verspringen!F5</f>
         <v>44750</v>
       </c>
       <c r="H47" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B48" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C48" t="str">
         <f>Verspringen!B19</f>
@@ -15433,20 +15441,20 @@
         <f>Verspringen!E19</f>
         <v>0.9</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="20">
         <f>Verspringen!F19</f>
         <v>44694</v>
       </c>
       <c r="H48" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B49" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C49" t="str">
         <f>Verspringen!B33</f>
@@ -15464,20 +15472,20 @@
         <f>Verspringen!E33</f>
         <v>-0.2</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="20">
         <f>Verspringen!F33</f>
         <v>44050</v>
       </c>
       <c r="H49" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B50" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C50" t="str">
         <f>Verspringen!B47</f>
@@ -15495,20 +15503,20 @@
         <f>Verspringen!E47</f>
         <v>0.3</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="20">
         <f>Verspringen!F47</f>
         <v>42545</v>
       </c>
       <c r="H50" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B51" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C51" t="str">
         <f>Verspringen!B61</f>
@@ -15526,20 +15534,20 @@
         <f>Verspringen!E61</f>
         <v>3.2</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="20">
         <f>Verspringen!F61</f>
         <v>44332</v>
       </c>
       <c r="H51" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B52" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C52" t="str">
         <f>Verspringen!B75</f>
@@ -15557,12 +15565,12 @@
         <f>Verspringen!E75</f>
         <v>0.9</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="20">
         <f>Verspringen!F75</f>
         <v>44332</v>
       </c>
       <c r="H52" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
